--- a/5labinf/lab5.xlsx
+++ b/5labinf/lab5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -547,23 +547,177 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1896,32 +2050,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL53"/>
+  <dimension ref="A1:BT53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BI46" sqref="BI46:BL50"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="7" max="25" width="2.28515625" customWidth="1"/>
-    <col min="26" max="26" width="19.85546875" customWidth="1"/>
-    <col min="28" max="28" width="11.28515625" customWidth="1"/>
-    <col min="29" max="30" width="5.140625" customWidth="1"/>
-    <col min="31" max="50" width="2.28515625" customWidth="1"/>
-    <col min="53" max="53" width="5.28515625" customWidth="1"/>
-    <col min="55" max="55" width="6.85546875" customWidth="1"/>
-    <col min="59" max="59" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="7" max="25" width="2.26953125" customWidth="1"/>
+    <col min="26" max="26" width="19.81640625" customWidth="1"/>
+    <col min="28" max="28" width="11.26953125" customWidth="1"/>
+    <col min="29" max="30" width="5.1796875" customWidth="1"/>
+    <col min="31" max="50" width="2.26953125" customWidth="1"/>
+    <col min="53" max="53" width="5.26953125" customWidth="1"/>
+    <col min="55" max="55" width="6.81640625" customWidth="1"/>
+    <col min="59" max="59" width="3.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>5232</v>
+        <v>12124</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1985,7 +2139,7 @@
       <c r="BK1" s="4"/>
       <c r="BL1" s="4"/>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -2055,7 +2209,7 @@
       <c r="BK2" s="4"/>
       <c r="BL2" s="4"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2121,7 +2275,7 @@
       <c r="BK3" s="4"/>
       <c r="BL3" s="4"/>
     </row>
-    <row r="4" spans="1:64" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:72" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2130,7 +2284,7 @@
       </c>
       <c r="C4" s="1">
         <f>C1</f>
-        <v>5232</v>
+        <v>12124</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
@@ -2147,18 +2301,18 @@
       </c>
       <c r="I4" s="5">
         <f>MOD(QUOTIENT($C4, 2^(16-COUNTIF($G4:H4,0) - COUNTIF($G4:H4,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="5">
         <f>MOD(QUOTIENT($C4, 2^(16-COUNTIF($G4:I4,0) - COUNTIF($G4:I4,1) - 1)), 2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="L4" s="5">
         <f>MOD(QUOTIENT($C4, 2^(16-COUNTIF($G4:K4,0) - COUNTIF($G4:K4,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="5">
         <f>MOD(QUOTIENT($C4, 2^(16-COUNTIF($G4:L4,0) - COUNTIF($G4:L4,1) - 1)), 2)</f>
@@ -2166,11 +2320,11 @@
       </c>
       <c r="N4" s="5">
         <f>MOD(QUOTIENT($C4, 2^(16-COUNTIF($G4:M4,0) - COUNTIF($G4:M4,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="5">
         <f>MOD(QUOTIENT($C4, 2^(16-COUNTIF($G4:N4,0) - COUNTIF($G4:N4,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>4</v>
@@ -2185,7 +2339,7 @@
       </c>
       <c r="S4" s="5">
         <f>MOD(QUOTIENT($C4, 2^(16-COUNTIF($G4:R4,0) - COUNTIF($G4:R4,1) - 1)), 2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="5">
         <f>MOD(QUOTIENT($C4, 2^(16-COUNTIF($G4:S4,0) - COUNTIF($G4:S4,1) - 1)), 2)</f>
@@ -2196,11 +2350,11 @@
       </c>
       <c r="V4" s="5">
         <f>MOD(QUOTIENT($C4, 2^(16-COUNTIF($G4:U4,0) - COUNTIF($G4:U4,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="5">
         <f>MOD(QUOTIENT($C4, 2^(16-COUNTIF($G4:V4,0) - COUNTIF($G4:V4,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="5">
         <f>MOD(QUOTIENT($C4, 2^(16-COUNTIF($G4:W4,0) - COUNTIF($G4:W4,1) - 1)), 2)</f>
@@ -2231,11 +2385,11 @@
       </c>
       <c r="AH4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2243,7 +2397,7 @@
       </c>
       <c r="AK4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="1">
         <f t="shared" si="0"/>
@@ -2251,11 +2405,11 @@
       </c>
       <c r="AM4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2271,7 +2425,7 @@
       </c>
       <c r="AR4" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="1">
         <f t="shared" si="0"/>
@@ -2283,11 +2437,11 @@
       </c>
       <c r="AU4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV4" s="1">
         <f t="shared" ref="AP4:AX5" si="1">W4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="1">
         <f t="shared" si="1"/>
@@ -2308,19 +2462,19 @@
       <c r="BE4" s="1"/>
       <c r="BF4" s="1">
         <f>C4</f>
-        <v>5232</v>
+        <v>12124</v>
       </c>
       <c r="BG4" s="1"/>
       <c r="BH4" s="4"/>
-      <c r="BI4" s="13" t="str">
+      <c r="BI4" s="12" t="str">
         <f>IF(AZ7=BF7,"При сложении положительного и отрицательного слагаемых получено положительное число. Результат корректен, совпадает с суммой десятичных эквивалентов.","При сложении двух положительных слагаемых получено отрицательное число. Результат выполнения операции некорректен вследствие возникающего переполнения.")</f>
-        <v>При сложении положительного и отрицательного слагаемых получено положительное число. Результат корректен, совпадает с суммой десятичных эквивалентов.</v>
-      </c>
-      <c r="BJ4" s="13"/>
-      <c r="BK4" s="13"/>
-      <c r="BL4" s="13"/>
+        <v>При сложении двух положительных слагаемых получено отрицательное число. Результат выполнения операции некорректен вследствие возникающего переполнения.</v>
+      </c>
+      <c r="BJ4" s="12"/>
+      <c r="BK4" s="12"/>
+      <c r="BL4" s="12"/>
     </row>
-    <row r="5" spans="1:64" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:72" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2515,12 +2669,26 @@
       </c>
       <c r="BG5" s="1"/>
       <c r="BH5" s="4"/>
-      <c r="BI5" s="13"/>
-      <c r="BJ5" s="13"/>
-      <c r="BK5" s="13"/>
-      <c r="BL5" s="13"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="12"/>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="BR5">
+        <v>1</v>
+      </c>
+      <c r="BT5">
+        <f>IF(AX7,BR5,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2529,7 +2697,7 @@
       </c>
       <c r="C6" s="1">
         <f>C1+C2</f>
-        <v>24136</v>
+        <v>31028</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
@@ -2546,7 +2714,7 @@
       </c>
       <c r="I6" s="5">
         <f>MOD(QUOTIENT($C6, 2^(16-COUNTIF($G6:H6,0) - COUNTIF($G6:H6,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="5">
         <f>MOD(QUOTIENT($C6, 2^(16-COUNTIF($G6:I6,0) - COUNTIF($G6:I6,1) - 1)), 2)</f>
@@ -2561,15 +2729,15 @@
       </c>
       <c r="M6" s="5">
         <f>MOD(QUOTIENT($C6, 2^(16-COUNTIF($G6:L6,0) - COUNTIF($G6:L6,1) - 1)), 2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="5">
         <f>MOD(QUOTIENT($C6, 2^(16-COUNTIF($G6:M6,0) - COUNTIF($G6:M6,1) - 1)), 2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="5">
         <f>MOD(QUOTIENT($C6, 2^(16-COUNTIF($G6:N6,0) - COUNTIF($G6:N6,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>4</v>
@@ -2580,26 +2748,26 @@
       </c>
       <c r="R6" s="5">
         <f>MOD(QUOTIENT($C6, 2^(16-COUNTIF($G6:Q6,0) - COUNTIF($G6:Q6,1) - 1)), 2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="5">
         <f>MOD(QUOTIENT($C6, 2^(16-COUNTIF($G6:R6,0) - COUNTIF($G6:R6,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="5">
         <f>MOD(QUOTIENT($C6, 2^(16-COUNTIF($G6:S6,0) - COUNTIF($G6:S6,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="V6" s="5">
         <f>MOD(QUOTIENT($C6, 2^(16-COUNTIF($G6:U6,0) - COUNTIF($G6:U6,1) - 1)), 2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="5">
         <f>MOD(QUOTIENT($C6, 2^(16-COUNTIF($G6:V6,0) - COUNTIF($G6:V6,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="5">
         <f>MOD(QUOTIENT($C6, 2^(16-COUNTIF($G6:W6,0) - COUNTIF($G6:W6,1) - 1)), 2)</f>
@@ -2697,12 +2865,26 @@
       </c>
       <c r="BG6" s="1"/>
       <c r="BH6" s="4"/>
-      <c r="BI6" s="13"/>
-      <c r="BJ6" s="13"/>
-      <c r="BK6" s="13"/>
-      <c r="BL6" s="13"/>
+      <c r="BI6" s="12"/>
+      <c r="BJ6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BL6" s="12"/>
+      <c r="BP6">
+        <v>1</v>
+      </c>
+      <c r="BQ6">
+        <f>BQ5*2</f>
+        <v>2</v>
+      </c>
+      <c r="BR6">
+        <v>2</v>
+      </c>
+      <c r="BT6">
+        <f>IF(AW7,BR6,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:72" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -2711,7 +2893,7 @@
       </c>
       <c r="C7" s="1">
         <f>C1+C2+C2</f>
-        <v>43040</v>
+        <v>49932</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
@@ -2724,11 +2906,11 @@
       </c>
       <c r="H7" s="5">
         <f>MOD(QUOTIENT($C7, 2^(16-COUNTIF($G7:G7,0) - COUNTIF($G7:G7,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="5">
         <f>MOD(QUOTIENT($C7, 2^(16-COUNTIF($G7:H7,0) - COUNTIF($G7:H7,1) - 1)), 2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5">
         <f>MOD(QUOTIENT($C7, 2^(16-COUNTIF($G7:I7,0) - COUNTIF($G7:I7,1) - 1)), 2)</f>
@@ -2739,7 +2921,7 @@
       </c>
       <c r="L7" s="5">
         <f>MOD(QUOTIENT($C7, 2^(16-COUNTIF($G7:K7,0) - COUNTIF($G7:K7,1) - 1)), 2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="5">
         <f>MOD(QUOTIENT($C7, 2^(16-COUNTIF($G7:L7,0) - COUNTIF($G7:L7,1) - 1)), 2)</f>
@@ -2747,11 +2929,11 @@
       </c>
       <c r="N7" s="5">
         <f>MOD(QUOTIENT($C7, 2^(16-COUNTIF($G7:M7,0) - COUNTIF($G7:M7,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="5">
         <f>MOD(QUOTIENT($C7, 2^(16-COUNTIF($G7:N7,0) - COUNTIF($G7:N7,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>4</v>
@@ -2766,7 +2948,7 @@
       </c>
       <c r="S7" s="5">
         <f>MOD(QUOTIENT($C7, 2^(16-COUNTIF($G7:R7,0) - COUNTIF($G7:R7,1) - 1)), 2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="5">
         <f>MOD(QUOTIENT($C7, 2^(16-COUNTIF($G7:S7,0) - COUNTIF($G7:S7,1) - 1)), 2)</f>
@@ -2777,11 +2959,11 @@
       </c>
       <c r="V7" s="5">
         <f>MOD(QUOTIENT($C7, 2^(16-COUNTIF($G7:U7,0) - COUNTIF($G7:U7,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="5">
         <f>MOD(QUOTIENT($C7, 2^(16-COUNTIF($G7:V7,0) - COUNTIF($G7:V7,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="5">
         <f>MOD(QUOTIENT($C7, 2^(16-COUNTIF($G7:W7,0) - COUNTIF($G7:W7,1) - 1)), 2)</f>
@@ -2810,7 +2992,7 @@
       </c>
       <c r="AH7" s="1">
         <f>IF( (AH4+AH5+IF(OR(COUNTIF(AI4:AI5, 1)=2, AND(COUNTIF(AI4:AI5, 1)=1, AI7=0)), 1, 0))&gt;=2, AH4+AH5+IF(OR(COUNTIF(AI4:AI5, 1)=2, AND(COUNTIF(AI4:AI5, 1)=1, AI7=0)), 1, 0)-2, AH4+AH5+IF(OR(COUNTIF(AI4:AI5, 1)=2, AND(COUNTIF(AI4:AI5, 1)=1, AI7=0)), 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" s="1">
         <f>IF( (AI4+AI5+IF(OR(COUNTIF(AK4:AK5, 1)=2, AND(COUNTIF(AK4:AK5, 1)=1, AK7=0)), 1, 0))&gt;=2, AI4+AI5+IF(OR(COUNTIF(AK4:AK5, 1)=2, AND(COUNTIF(AK4:AK5, 1)=1, AK7=0)), 1, 0)-2, AI4+AI5+IF(OR(COUNTIF(AK4:AK5, 1)=2, AND(COUNTIF(AK4:AK5, 1)=1, AK7=0)), 1, 0))</f>
@@ -2825,15 +3007,15 @@
       </c>
       <c r="AL7" s="1">
         <f>IF( (AL4+AL5+IF(OR(COUNTIF(AM4:AM5, 1)=2, AND(COUNTIF(AM4:AM5, 1)=1, AM7=0)), 1, 0))&gt;=2, AL4+AL5+IF(OR(COUNTIF(AM4:AM5, 1)=2, AND(COUNTIF(AM4:AM5, 1)=1, AM7=0)), 1, 0)-2, AL4+AL5+IF(OR(COUNTIF(AM4:AM5, 1)=2, AND(COUNTIF(AM4:AM5, 1)=1, AM7=0)), 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="1">
         <f>IF( (AM4+AM5+IF(OR(COUNTIF(AN4:AN5, 1)=2, AND(COUNTIF(AN4:AN5, 1)=1, AN7=0)), 1, 0))&gt;=2, AM4+AM5+IF(OR(COUNTIF(AN4:AN5, 1)=2, AND(COUNTIF(AN4:AN5, 1)=1, AN7=0)), 1, 0)-2, AM4+AM5+IF(OR(COUNTIF(AN4:AN5, 1)=2, AND(COUNTIF(AN4:AN5, 1)=1, AN7=0)), 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7" s="1">
         <f>IF( (AN4+AN5+IF(OR(COUNTIF(AP4:AP5, 1)=2, AND(COUNTIF(AP4:AP5, 1)=1, AP7=0)), 1, 0))&gt;=2, AN4+AN5+IF(OR(COUNTIF(AP4:AP5, 1)=2, AND(COUNTIF(AP4:AP5, 1)=1, AP7=0)), 1, 0)-2, AN4+AN5+IF(OR(COUNTIF(AP4:AP5, 1)=2, AND(COUNTIF(AP4:AP5, 1)=1, AP7=0)), 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7" s="1" t="s">
         <v>4</v>
@@ -2844,26 +3026,26 @@
       </c>
       <c r="AQ7" s="1">
         <f>IF( (AQ4+AQ5+IF(OR(COUNTIF(AR4:AR5, 1)=2, AND(COUNTIF(AR4:AR5, 1)=1, AR7=0)), 1, 0))&gt;=2, AQ4+AQ5+IF(OR(COUNTIF(AR4:AR5, 1)=2, AND(COUNTIF(AR4:AR5, 1)=1, AR7=0)), 1, 0)-2, AQ4+AQ5+IF(OR(COUNTIF(AR4:AR5, 1)=2, AND(COUNTIF(AR4:AR5, 1)=1, AR7=0)), 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="1">
         <f>IF( (AR4+AR5+IF(OR(COUNTIF(AS4:AS5, 1)=2, AND(COUNTIF(AS4:AS5, 1)=1, AS7=0)), 1, 0))&gt;=2, AR4+AR5+IF(OR(COUNTIF(AS4:AS5, 1)=2, AND(COUNTIF(AS4:AS5, 1)=1, AS7=0)), 1, 0)-2, AR4+AR5+IF(OR(COUNTIF(AS4:AS5, 1)=2, AND(COUNTIF(AS4:AS5, 1)=1, AS7=0)), 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS7" s="1">
         <f>IF( (AS4+AS5+IF(OR(COUNTIF(AU4:AU5, 1)=2, AND(COUNTIF(AU4:AU5, 1)=1, AU7=0)), 1, 0))&gt;=2, AS4+AS5+IF(OR(COUNTIF(AU4:AU5, 1)=2, AND(COUNTIF(AU4:AU5, 1)=1, AU7=0)), 1, 0)-2, AS4+AS5+IF(OR(COUNTIF(AU4:AU5, 1)=2, AND(COUNTIF(AU4:AU5, 1)=1, AU7=0)), 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AU7" s="1">
         <f>IF( (AU4+AU5+IF(OR(COUNTIF(AV4:AV5, 1)=2, AND(COUNTIF(AV4:AV5, 1)=1, AV7=0)), 1, 0))&gt;=2, AU4+AU5+IF(OR(COUNTIF(AV4:AV5, 1)=2, AND(COUNTIF(AV4:AV5, 1)=1, AV7=0)), 1, 0)-2, AU4+AU5+IF(OR(COUNTIF(AV4:AV5, 1)=2, AND(COUNTIF(AV4:AV5, 1)=1, AV7=0)), 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV7" s="1">
         <f>IF( (AV4+AV5+IF(OR(COUNTIF(AW4:AW5, 1)=2, AND(COUNTIF(AW4:AW5, 1)=1, AW7=0)), 1, 0))&gt;=2, AV4+AV5+IF(OR(COUNTIF(AW4:AW5, 1)=2, AND(COUNTIF(AW4:AW5, 1)=1, AW7=0)), 1, 0)-2, AV4+AV5+IF(OR(COUNTIF(AW4:AW5, 1)=2, AND(COUNTIF(AW4:AW5, 1)=1, AW7=0)), 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="1">
         <f>IF( (AW4+AW5+IF(OR(COUNTIF(AX4:AX5, 1)=2, AND(COUNTIF(AX4:AX5, 1)=1, AX7=0)), 1, 0))&gt;=2, AW4+AW5+IF(OR(COUNTIF(AX4:AX5, 1)=2, AND(COUNTIF(AX4:AX5, 1)=1, AX7=0)), 1, 0)-2, AW4+AW5+IF(OR(COUNTIF(AX4:AX5, 1)=2, AND(COUNTIF(AX4:AX5, 1)=1, AX7=0)), 1, 0))</f>
@@ -2877,8 +3059,8 @@
         <v>24</v>
       </c>
       <c r="AZ7" s="9">
-        <f>IF(AF7=0,BIN2DEC(CONCATENATE(AP7,AQ7,AR7,AS7,AU7,AV7,AW7,AX7))+BIN2DEC(CONCATENATE(AF7,AG7,AH7,AI7,AK7,AL7,AM7,AN7))*2^8,-(BIN2DEC(CONCATENATE((AP7-1)*(-1),(AQ7-1)*(-1),(AR7-1)*(-1),(AS7-1)*(-1),(AU7-1)*(-1),(AV7-1)*(-1),(AW7-1)*(-1),(AX7-1)*(-1))))-BIN2DEC(CONCATENATE((AF7-1)*(-1),(AG7-1)*(-1),(AH7-1)*(-1),(AI7-1)*(-1),(AK7-1)*(-1),(AL7-1)*(-1),(AM7-1)*(-1),(AN7-1)*(-1)))*2^8-1)</f>
-        <v>24136</v>
+        <f>SUM(BT8:BT21)</f>
+        <v>31024</v>
       </c>
       <c r="BA7" s="7" t="s">
         <v>25</v>
@@ -2889,18 +3071,32 @@
       <c r="BE7" s="1"/>
       <c r="BF7" s="1">
         <f>BF4+BF5</f>
-        <v>24136</v>
+        <v>31028</v>
       </c>
       <c r="BG7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="BH7" s="4"/>
-      <c r="BI7" s="13"/>
-      <c r="BJ7" s="13"/>
-      <c r="BK7" s="13"/>
-      <c r="BL7" s="13"/>
+      <c r="BI7" s="12"/>
+      <c r="BJ7" s="12"/>
+      <c r="BK7" s="12"/>
+      <c r="BL7" s="12"/>
+      <c r="BP7">
+        <v>2</v>
+      </c>
+      <c r="BQ7">
+        <f t="shared" ref="BQ7:BQ24" si="4">BQ6*2</f>
+        <v>4</v>
+      </c>
+      <c r="BR7">
+        <v>4</v>
+      </c>
+      <c r="BT7">
+        <f>IF(AV7,BR7,0)</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -2909,7 +3105,7 @@
       </c>
       <c r="C8" s="1">
         <f>C2-C1</f>
-        <v>13672</v>
+        <v>6780</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
@@ -2926,7 +3122,7 @@
       </c>
       <c r="I8" s="5">
         <f>MOD(QUOTIENT($C8, 2^(16-COUNTIF($G8:H8,0) - COUNTIF($G8:H8,1) - 1)), 2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5">
         <f>MOD(QUOTIENT($C8, 2^(16-COUNTIF($G8:I8,0) - COUNTIF($G8:I8,1) - 1)), 2)</f>
@@ -2937,19 +3133,19 @@
       </c>
       <c r="L8" s="5">
         <f>MOD(QUOTIENT($C8, 2^(16-COUNTIF($G8:K8,0) - COUNTIF($G8:K8,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="5">
         <f>MOD(QUOTIENT($C8, 2^(16-COUNTIF($G8:L8,0) - COUNTIF($G8:L8,1) - 1)), 2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="5">
         <f>MOD(QUOTIENT($C8, 2^(16-COUNTIF($G8:M8,0) - COUNTIF($G8:M8,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="5">
         <f>MOD(QUOTIENT($C8, 2^(16-COUNTIF($G8:N8,0) - COUNTIF($G8:N8,1) - 1)), 2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>4</v>
@@ -2968,7 +3164,7 @@
       </c>
       <c r="T8" s="5">
         <f>MOD(QUOTIENT($C8, 2^(16-COUNTIF($G8:S8,0) - COUNTIF($G8:S8,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>4</v>
@@ -2979,7 +3175,7 @@
       </c>
       <c r="W8" s="5">
         <f>MOD(QUOTIENT($C8, 2^(16-COUNTIF($G8:V8,0) - COUNTIF($G8:V8,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="5">
         <f>MOD(QUOTIENT($C8, 2^(16-COUNTIF($G8:W8,0) - COUNTIF($G8:W8,1) - 1)), 2)</f>
@@ -3027,12 +3223,26 @@
       <c r="BF8" s="1"/>
       <c r="BG8" s="1"/>
       <c r="BH8" s="4"/>
-      <c r="BI8" s="13"/>
-      <c r="BJ8" s="13"/>
-      <c r="BK8" s="13"/>
-      <c r="BL8" s="13"/>
+      <c r="BI8" s="12"/>
+      <c r="BJ8" s="12"/>
+      <c r="BK8" s="12"/>
+      <c r="BL8" s="12"/>
+      <c r="BP8">
+        <v>3</v>
+      </c>
+      <c r="BQ8">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="BR8">
+        <v>8</v>
+      </c>
+      <c r="BT8">
+        <f>IF(AU7,BR8,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -3041,7 +3251,7 @@
       </c>
       <c r="C9" s="1">
         <f>65536-C7</f>
-        <v>22496</v>
+        <v>15604</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
@@ -3054,11 +3264,11 @@
       </c>
       <c r="H9" s="5">
         <f>MOD(QUOTIENT($C9, 2^(16-COUNTIF($G9:G9,0) - COUNTIF($G9:G9,1) - 1)), 2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="5">
         <f>MOD(QUOTIENT($C9, 2^(16-COUNTIF($G9:H9,0) - COUNTIF($G9:H9,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="5">
         <f>MOD(QUOTIENT($C9, 2^(16-COUNTIF($G9:I9,0) - COUNTIF($G9:I9,1) - 1)), 2)</f>
@@ -3069,7 +3279,7 @@
       </c>
       <c r="L9" s="5">
         <f>MOD(QUOTIENT($C9, 2^(16-COUNTIF($G9:K9,0) - COUNTIF($G9:K9,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="5">
         <f>MOD(QUOTIENT($C9, 2^(16-COUNTIF($G9:L9,0) - COUNTIF($G9:L9,1) - 1)), 2)</f>
@@ -3077,11 +3287,11 @@
       </c>
       <c r="N9" s="5">
         <f>MOD(QUOTIENT($C9, 2^(16-COUNTIF($G9:M9,0) - COUNTIF($G9:M9,1) - 1)), 2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="5">
         <f>MOD(QUOTIENT($C9, 2^(16-COUNTIF($G9:N9,0) - COUNTIF($G9:N9,1) - 1)), 2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>4</v>
@@ -3100,7 +3310,7 @@
       </c>
       <c r="T9" s="5">
         <f>MOD(QUOTIENT($C9, 2^(16-COUNTIF($G9:S9,0) - COUNTIF($G9:S9,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="5" t="s">
         <v>4</v>
@@ -3111,7 +3321,7 @@
       </c>
       <c r="W9" s="5">
         <f>MOD(QUOTIENT($C9, 2^(16-COUNTIF($G9:V9,0) - COUNTIF($G9:V9,1) - 1)), 2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="5">
         <f>MOD(QUOTIENT($C9, 2^(16-COUNTIF($G9:W9,0) - COUNTIF($G9:W9,1) - 1)), 2)</f>
@@ -3131,40 +3341,40 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="10" t="s">
+      <c r="AG9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
       <c r="AJ9" s="2">
         <f>IF(OR(COUNTIF(AF4:AF5,1)=2,AND(COUNTIF(AF4:AF5,1)=1,IF(OR(COUNTIF(AG4:AG5,1)=2,AND(COUNTIF(AG4:AG5,1)=1,AG7=0)),1,0))),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AK9" s="10" t="s">
+      <c r="AK9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
       <c r="AN9" s="2">
         <f>IF(MOD(COUNTIF(AP7:AX7,1),2)=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="2"/>
-      <c r="AP9" s="10" t="s">
+      <c r="AP9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="10"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
       <c r="AS9" s="2">
         <f>IF(OR(COUNTIF(AU4:AU5, 1)=2, AND(COUNTIF(AU4:AU5, 1)=1, AU7=0)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
-      <c r="AV9" s="10" t="s">
+      <c r="AV9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AW9" s="10"/>
+      <c r="AW9" s="11"/>
       <c r="AX9" s="2">
         <f>IF(COUNTIF(AF7:AX7,1)=0,1,0)</f>
         <v>0</v>
@@ -3193,23 +3403,37 @@
       <c r="BJ9" s="4"/>
       <c r="BK9" s="4"/>
       <c r="BL9" s="4"/>
+      <c r="BP9">
+        <v>4</v>
+      </c>
+      <c r="BQ9">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="BR9">
+        <v>16</v>
+      </c>
+      <c r="BT9">
+        <f>IF(AS7,BR9,0)</f>
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" ref="C10:C15" si="4">-C4</f>
-        <v>-5232</v>
+        <f t="shared" ref="C10:C15" si="5">-C4</f>
+        <v>-12124</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="6">
@@ -3222,18 +3446,18 @@
       </c>
       <c r="I10" s="6">
         <f>IF(AND(COUNTIF(J10:$Y10, 1) =0,I4=1), 2-1, IF(I4=1,0,IF(COUNTIF(J10:$Y10, 1) =0,0,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="6">
         <f>IF(AND(COUNTIF(K10:$Y10, 1) =0,J4=1), 2-1, IF(J4=1,0,IF(COUNTIF(K10:$Y10, 1) =0,0,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="L10" s="6">
         <f>IF(AND(COUNTIF(M10:$Y10, 1) =0,L4=1), 2-1, IF(L4=1,0,IF(COUNTIF(M10:$Y10, 1) =0,0,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="6">
         <f>IF(AND(COUNTIF(N10:$Y10, 1) =0,M4=1), 2-1, IF(M4=1,0,IF(COUNTIF(N10:$Y10, 1) =0,0,1)))</f>
@@ -3241,11 +3465,11 @@
       </c>
       <c r="N10" s="6">
         <f>IF(AND(COUNTIF(O10:$Y10, 1) =0,N4=1), 2-1, IF(N4=1,0,IF(COUNTIF(O10:$Y10, 1) =0,0,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="6">
         <f>IF(AND(COUNTIF(P10:$Y10, 1) =0,O4=1), 2-1, IF(O4=1,0,IF(COUNTIF(P10:$Y10, 1) =0,0,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>4</v>
@@ -3260,11 +3484,11 @@
       </c>
       <c r="S10" s="6">
         <f>IF(AND(COUNTIF(T10:$Y10, 1) =0,S4=1), 2-1, IF(S4=1,0,IF(COUNTIF(T10:$Y10, 1) =0,0,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="6">
         <f>IF(AND(COUNTIF(U10:$Y10, 1) =0,T4=1), 2-1, IF(T4=1,0,IF(COUNTIF(U10:$Y10, 1) =0,0,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="6" t="s">
         <v>4</v>
@@ -3275,7 +3499,7 @@
       </c>
       <c r="W10" s="6">
         <f>IF(AND(COUNTIF(X10:$Y10, 1) =0,W4=1), 2-1, IF(W4=1,0,IF(COUNTIF(X10:$Y10, 1) =0,0,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="6">
         <f>IF(AND(COUNTIF(Y10:$Y10, 1) =0,X4=1), 2-1, IF(X4=1,0,IF(COUNTIF(Y10:$Y10, 1) =0,0,1)))</f>
@@ -3324,23 +3548,37 @@
       <c r="BJ10" s="4"/>
       <c r="BK10" s="4"/>
       <c r="BL10" s="4"/>
+      <c r="BP10">
+        <v>5</v>
+      </c>
+      <c r="BQ10">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="BR10">
+        <v>32</v>
+      </c>
+      <c r="BT10">
+        <f>IF(AR7,BR10,0)</f>
+        <v>32</v>
+      </c>
     </row>
-    <row r="11" spans="1:64" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:72" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-18904</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="6">
@@ -3413,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="6">
-        <f t="shared" ref="Y11:Y15" si="5">IF(Y5=0, 0, 2-1)</f>
+        <f t="shared" ref="Y11:Y15" si="6">IF(Y5=0, 0, 2-1)</f>
         <v>0</v>
       </c>
       <c r="Z11" s="1"/>
@@ -3425,75 +3663,75 @@
       </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1">
-        <f t="shared" ref="AF11:AU12" si="6">G5</f>
+        <f t="shared" ref="AF11:AU12" si="7">G5</f>
         <v>0</v>
       </c>
       <c r="AG11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AH11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AJ11" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>.</v>
       </c>
       <c r="AK11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AL11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AN11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AO11" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>.</v>
       </c>
       <c r="AP11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AQ11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AR11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AT11" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>.</v>
       </c>
       <c r="AU11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AV11" s="1">
-        <f t="shared" ref="AV11:AW12" si="7">W5</f>
+        <f t="shared" ref="AV11:AW12" si="8">W5</f>
         <v>0</v>
       </c>
       <c r="AW11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AX11" s="1">
@@ -3515,30 +3753,44 @@
       </c>
       <c r="BG11" s="1"/>
       <c r="BH11" s="4"/>
-      <c r="BI11" s="13" t="str">
+      <c r="BI11" s="12" t="str">
         <f>IF(AZ14=BF14,"При сложении положительного и отрицательного слагаемых получено положительное число. Результат корректен, совпадает с суммой десятичных эквивалентов.","При сложении двух положительных слагаемых получено отрицательное число. Результат выполнения операции некорректен вследствие возникающего переполнения.")</f>
         <v>При сложении двух положительных слагаемых получено отрицательное число. Результат выполнения операции некорректен вследствие возникающего переполнения.</v>
       </c>
-      <c r="BJ11" s="13"/>
-      <c r="BK11" s="13"/>
-      <c r="BL11" s="13"/>
+      <c r="BJ11" s="12"/>
+      <c r="BK11" s="12"/>
+      <c r="BL11" s="12"/>
+      <c r="BP11">
+        <v>6</v>
+      </c>
+      <c r="BQ11">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="BR11">
+        <v>64</v>
+      </c>
+      <c r="BT11">
+        <f>IF(AQ7,BR11,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:64" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:72" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="4"/>
-        <v>-24136</v>
+        <f t="shared" si="5"/>
+        <v>-31028</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="6">
@@ -3551,7 +3803,7 @@
       </c>
       <c r="I12" s="6">
         <f>IF(AND(COUNTIF(J12:$Y12, 1) =0,I6=1), 2-1, IF(I6=1,0,IF(COUNTIF(J12:$Y12, 1) =0,0,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="6">
         <f>IF(AND(COUNTIF(K12:$Y12, 1) =0,J6=1), 2-1, IF(J6=1,0,IF(COUNTIF(K12:$Y12, 1) =0,0,1)))</f>
@@ -3566,15 +3818,15 @@
       </c>
       <c r="M12" s="6">
         <f>IF(AND(COUNTIF(N12:$Y12, 1) =0,M6=1), 2-1, IF(M6=1,0,IF(COUNTIF(N12:$Y12, 1) =0,0,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="6">
         <f>IF(AND(COUNTIF(O12:$Y12, 1) =0,N6=1), 2-1, IF(N6=1,0,IF(COUNTIF(O12:$Y12, 1) =0,0,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="6">
         <f>IF(AND(COUNTIF(P12:$Y12, 1) =0,O6=1), 2-1, IF(O6=1,0,IF(COUNTIF(P12:$Y12, 1) =0,0,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>4</v>
@@ -3585,15 +3837,15 @@
       </c>
       <c r="R12" s="6">
         <f>IF(AND(COUNTIF(S12:$Y12, 1) =0,R6=1), 2-1, IF(R6=1,0,IF(COUNTIF(S12:$Y12, 1) =0,0,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="6">
         <f>IF(AND(COUNTIF(T12:$Y12, 1) =0,S6=1), 2-1, IF(S6=1,0,IF(COUNTIF(T12:$Y12, 1) =0,0,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="6">
         <f>IF(AND(COUNTIF(U12:$Y12, 1) =0,T6=1), 2-1, IF(T6=1,0,IF(COUNTIF(U12:$Y12, 1) =0,0,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="6" t="s">
         <v>4</v>
@@ -3604,14 +3856,14 @@
       </c>
       <c r="W12" s="6">
         <f>IF(AND(COUNTIF(X12:$Y12, 1) =0,W6=1), 2-1, IF(W6=1,0,IF(COUNTIF(X12:$Y12, 1) =0,0,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="6">
         <f>IF(AND(COUNTIF(Y12:$Y12, 1) =0,X6=1), 2-1, IF(X6=1,0,IF(COUNTIF(Y12:$Y12, 1) =0,0,1)))</f>
         <v>0</v>
       </c>
       <c r="Y12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z12" s="1"/>
@@ -3625,75 +3877,75 @@
       </c>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AH12" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AJ12" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>.</v>
       </c>
       <c r="AK12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AL12" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="AM12" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="AN12" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="AO12" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>.</v>
       </c>
       <c r="AP12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ12" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="AS12" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="AT12" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>.</v>
       </c>
       <c r="AU12" s="1">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="AV12" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="AW12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AX12" s="1">
@@ -3713,31 +3965,45 @@
       <c r="BE12" s="1"/>
       <c r="BF12" s="1">
         <f>C6</f>
-        <v>24136</v>
+        <v>31028</v>
       </c>
       <c r="BG12" s="1"/>
       <c r="BH12" s="4"/>
-      <c r="BI12" s="13"/>
-      <c r="BJ12" s="13"/>
-      <c r="BK12" s="13"/>
-      <c r="BL12" s="13"/>
+      <c r="BI12" s="12"/>
+      <c r="BJ12" s="12"/>
+      <c r="BK12" s="12"/>
+      <c r="BL12" s="12"/>
+      <c r="BP12">
+        <v>7</v>
+      </c>
+      <c r="BQ12">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="BR12">
+        <v>128</v>
+      </c>
+      <c r="BT12">
+        <f>IF(AP7,BR12,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="4"/>
-        <v>-43040</v>
+        <f t="shared" si="5"/>
+        <v>-49932</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G13" s="6">
@@ -3746,11 +4012,11 @@
       </c>
       <c r="H13" s="6">
         <f>IF(AND(COUNTIF(I13:$Y13, 1) =0,H7=1), 2-1, IF(H7=1,0,IF(COUNTIF(I13:$Y13, 1) =0,0,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="6">
         <f>IF(AND(COUNTIF(J13:$Y13, 1) =0,I7=1), 2-1, IF(I7=1,0,IF(COUNTIF(J13:$Y13, 1) =0,0,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="6">
         <f>IF(AND(COUNTIF(K13:$Y13, 1) =0,J7=1), 2-1, IF(J7=1,0,IF(COUNTIF(K13:$Y13, 1) =0,0,1)))</f>
@@ -3761,7 +4027,7 @@
       </c>
       <c r="L13" s="6">
         <f>IF(AND(COUNTIF(M13:$Y13, 1) =0,L7=1), 2-1, IF(L7=1,0,IF(COUNTIF(M13:$Y13, 1) =0,0,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="6">
         <f>IF(AND(COUNTIF(N13:$Y13, 1) =0,M7=1), 2-1, IF(M7=1,0,IF(COUNTIF(N13:$Y13, 1) =0,0,1)))</f>
@@ -3769,11 +4035,11 @@
       </c>
       <c r="N13" s="6">
         <f>IF(AND(COUNTIF(O13:$Y13, 1) =0,N7=1), 2-1, IF(N7=1,0,IF(COUNTIF(O13:$Y13, 1) =0,0,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="6">
         <f>IF(AND(COUNTIF(P13:$Y13, 1) =0,O7=1), 2-1, IF(O7=1,0,IF(COUNTIF(P13:$Y13, 1) =0,0,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>4</v>
@@ -3792,7 +4058,7 @@
       </c>
       <c r="T13" s="6">
         <f>IF(AND(COUNTIF(U13:$Y13, 1) =0,T7=1), 2-1, IF(T7=1,0,IF(COUNTIF(U13:$Y13, 1) =0,0,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="6" t="s">
         <v>4</v>
@@ -3803,14 +4069,14 @@
       </c>
       <c r="W13" s="6">
         <f>IF(AND(COUNTIF(X13:$Y13, 1) =0,W7=1), 2-1, IF(W7=1,0,IF(COUNTIF(X13:$Y13, 1) =0,0,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="6">
         <f>IF(AND(COUNTIF(Y13:$Y13, 1) =0,X7=1), 2-1, IF(X7=1,0,IF(COUNTIF(Y13:$Y13, 1) =0,0,1)))</f>
         <v>0</v>
       </c>
       <c r="Y13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z13" s="1"/>
@@ -3898,27 +4164,41 @@
       </c>
       <c r="BG13" s="1"/>
       <c r="BH13" s="4"/>
-      <c r="BI13" s="13"/>
-      <c r="BJ13" s="13"/>
-      <c r="BK13" s="13"/>
-      <c r="BL13" s="13"/>
+      <c r="BI13" s="12"/>
+      <c r="BJ13" s="12"/>
+      <c r="BK13" s="12"/>
+      <c r="BL13" s="12"/>
+      <c r="BP13">
+        <v>8</v>
+      </c>
+      <c r="BQ13">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="BR13">
+        <v>256</v>
+      </c>
+      <c r="BT13">
+        <f>IF(AN7,BR13,0)</f>
+        <v>256</v>
+      </c>
     </row>
-    <row r="14" spans="1:64" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:72" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="4"/>
-        <v>-13672</v>
+        <f t="shared" si="5"/>
+        <v>-6780</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>59</v>
       </c>
       <c r="G14" s="6">
@@ -3931,7 +4211,7 @@
       </c>
       <c r="I14" s="6">
         <f>IF(AND(COUNTIF(J14:$Y14, 1) =0,I8=1), 2-1, IF(I8=1,0,IF(COUNTIF(J14:$Y14, 1) =0,0,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="6">
         <f>IF(AND(COUNTIF(K14:$Y14, 1) =0,J8=1), 2-1, IF(J8=1,0,IF(COUNTIF(K14:$Y14, 1) =0,0,1)))</f>
@@ -3942,19 +4222,19 @@
       </c>
       <c r="L14" s="6">
         <f>IF(AND(COUNTIF(M14:$Y14, 1) =0,L8=1), 2-1, IF(L8=1,0,IF(COUNTIF(M14:$Y14, 1) =0,0,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="6">
         <f>IF(AND(COUNTIF(N14:$Y14, 1) =0,M8=1), 2-1, IF(M8=1,0,IF(COUNTIF(N14:$Y14, 1) =0,0,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="6">
         <f>IF(AND(COUNTIF(O14:$Y14, 1) =0,N8=1), 2-1, IF(N8=1,0,IF(COUNTIF(O14:$Y14, 1) =0,0,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="6">
         <f>IF(AND(COUNTIF(P14:$Y14, 1) =0,O8=1), 2-1, IF(O8=1,0,IF(COUNTIF(P14:$Y14, 1) =0,0,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>4</v>
@@ -3973,25 +4253,25 @@
       </c>
       <c r="T14" s="6">
         <f>IF(AND(COUNTIF(U14:$Y14, 1) =0,T8=1), 2-1, IF(T8=1,0,IF(COUNTIF(U14:$Y14, 1) =0,0,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="6" t="s">
         <v>4</v>
       </c>
       <c r="V14" s="6">
         <f>IF(AND(COUNTIF(W14:$Y14, 1) =0,V8=1), 2-1, IF(V8=1,0,IF(COUNTIF(W14:$Y14, 1) =0,0,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="6">
         <f>IF(AND(COUNTIF(X14:$Y14, 1) =0,W8=1), 2-1, IF(W8=1,0,IF(COUNTIF(X14:$Y14, 1) =0,0,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="6">
         <f>IF(AND(COUNTIF(Y14:$Y14, 1) =0,X8=1), 2-1, IF(X8=1,0,IF(COUNTIF(Y14:$Y14, 1) =0,0,1)))</f>
         <v>0</v>
       </c>
       <c r="Y14" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z14" s="1"/>
@@ -4006,11 +4286,11 @@
       </c>
       <c r="AG14" s="1">
         <f>IF( (AG11+AG12+IF(OR(COUNTIF(AH11:AH12, 1)=2, AND(COUNTIF(AH11:AH12, 1)=1, AH14=0)), 1, 0))&gt;=2, AG11+AG12+IF(OR(COUNTIF(AH11:AH12, 1)=2, AND(COUNTIF(AH11:AH12, 1)=1, AH14=0)), 1, 0)-2, AG11+AG12+IF(OR(COUNTIF(AH11:AH12, 1)=2, AND(COUNTIF(AH11:AH12, 1)=1, AH14=0)), 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14" s="1">
         <f>IF( (AH11+AH12+IF(OR(COUNTIF(AI11:AI12, 1)=2, AND(COUNTIF(AI11:AI12, 1)=1, AI14=0)), 1, 0))&gt;=2, AH11+AH12+IF(OR(COUNTIF(AI11:AI12, 1)=2, AND(COUNTIF(AI11:AI12, 1)=1, AI14=0)), 1, 0)-2, AH11+AH12+IF(OR(COUNTIF(AI11:AI12, 1)=2, AND(COUNTIF(AI11:AI12, 1)=1, AI14=0)), 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="1">
         <f>IF( (AI11+AI12+IF(OR(COUNTIF(AK11:AK12, 1)=2, AND(COUNTIF(AK11:AK12, 1)=1, AK14=0)), 1, 0))&gt;=2, AI11+AI12+IF(OR(COUNTIF(AK11:AK12, 1)=2, AND(COUNTIF(AK11:AK12, 1)=1, AK14=0)), 1, 0)-2, AI11+AI12+IF(OR(COUNTIF(AK11:AK12, 1)=2, AND(COUNTIF(AK11:AK12, 1)=1, AK14=0)), 1, 0))</f>
@@ -4021,7 +4301,7 @@
       </c>
       <c r="AK14" s="1">
         <f>IF( (AK11+AK12+IF(OR(COUNTIF(AL11:AL12, 1)=2, AND(COUNTIF(AL11:AL12, 1)=1, AL14=0)), 1, 0))&gt;=2, AK11+AK12+IF(OR(COUNTIF(AL11:AL12, 1)=2, AND(COUNTIF(AL11:AL12, 1)=1, AL14=0)), 1, 0)-2, AK11+AK12+IF(OR(COUNTIF(AL11:AL12, 1)=2, AND(COUNTIF(AL11:AL12, 1)=1, AL14=0)), 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
         <f>IF( (AL11+AL12+IF(OR(COUNTIF(AM11:AM12, 1)=2, AND(COUNTIF(AM11:AM12, 1)=1, AM14=0)), 1, 0))&gt;=2, AL11+AL12+IF(OR(COUNTIF(AM11:AM12, 1)=2, AND(COUNTIF(AM11:AM12, 1)=1, AM14=0)), 1, 0)-2, AL11+AL12+IF(OR(COUNTIF(AM11:AM12, 1)=2, AND(COUNTIF(AM11:AM12, 1)=1, AM14=0)), 1, 0))</f>
@@ -4029,11 +4309,11 @@
       </c>
       <c r="AM14" s="1">
         <f>IF( (AM11+AM12+IF(OR(COUNTIF(AN11:AN12, 1)=2, AND(COUNTIF(AN11:AN12, 1)=1, AN14=0)), 1, 0))&gt;=2, AM11+AM12+IF(OR(COUNTIF(AN11:AN12, 1)=2, AND(COUNTIF(AN11:AN12, 1)=1, AN14=0)), 1, 0)-2, AM11+AM12+IF(OR(COUNTIF(AN11:AN12, 1)=2, AND(COUNTIF(AN11:AN12, 1)=1, AN14=0)), 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN14" s="1">
         <f>IF( (AN11+AN12+IF(OR(COUNTIF(AP11:AP12, 1)=2, AND(COUNTIF(AP11:AP12, 1)=1, AP14=0)), 1, 0))&gt;=2, AN11+AN12+IF(OR(COUNTIF(AP11:AP12, 1)=2, AND(COUNTIF(AP11:AP12, 1)=1, AP14=0)), 1, 0)-2, AN11+AN12+IF(OR(COUNTIF(AP11:AP12, 1)=2, AND(COUNTIF(AP11:AP12, 1)=1, AP14=0)), 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14" s="1" t="s">
         <v>4</v>
@@ -4048,7 +4328,7 @@
       </c>
       <c r="AR14" s="1">
         <f>IF( (AR11+AR12+IF(OR(COUNTIF(AS11:AS12, 1)=2, AND(COUNTIF(AS11:AS12, 1)=1, AS14=0)), 1, 0))&gt;=2, AR11+AR12+IF(OR(COUNTIF(AS11:AS12, 1)=2, AND(COUNTIF(AS11:AS12, 1)=1, AS14=0)), 1, 0)-2, AR11+AR12+IF(OR(COUNTIF(AS11:AS12, 1)=2, AND(COUNTIF(AS11:AS12, 1)=1, AS14=0)), 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="1">
         <f>IF( (AS11+AS12+IF(OR(COUNTIF(AU11:AU12, 1)=2, AND(COUNTIF(AU11:AU12, 1)=1, AU14=0)), 1, 0))&gt;=2, AS11+AS12+IF(OR(COUNTIF(AU11:AU12, 1)=2, AND(COUNTIF(AU11:AU12, 1)=1, AU14=0)), 1, 0)-2, AS11+AS12+IF(OR(COUNTIF(AU11:AU12, 1)=2, AND(COUNTIF(AU11:AU12, 1)=1, AU14=0)), 1, 0))</f>
@@ -4059,11 +4339,11 @@
       </c>
       <c r="AU14" s="1">
         <f>IF( (AU11+AU12+IF(OR(COUNTIF(AV11:AV12, 1)=2, AND(COUNTIF(AV11:AV12, 1)=1, AV14=0)), 1, 0))&gt;=2, AU11+AU12+IF(OR(COUNTIF(AV11:AV12, 1)=2, AND(COUNTIF(AV11:AV12, 1)=1, AV14=0)), 1, 0)-2, AU11+AU12+IF(OR(COUNTIF(AV11:AV12, 1)=2, AND(COUNTIF(AV11:AV12, 1)=1, AV14=0)), 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV14" s="1">
         <f>IF( (AV11+AV12+IF(OR(COUNTIF(AW11:AW12, 1)=2, AND(COUNTIF(AW11:AW12, 1)=1, AW14=0)), 1, 0))&gt;=2, AV11+AV12+IF(OR(COUNTIF(AW11:AW12, 1)=2, AND(COUNTIF(AW11:AW12, 1)=1, AW14=0)), 1, 0)-2, AV11+AV12+IF(OR(COUNTIF(AW11:AW12, 1)=2, AND(COUNTIF(AW11:AW12, 1)=1, AW14=0)), 1, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW14" s="1">
         <f>IF( (AW11+AW12+IF(OR(COUNTIF(AX11:AX12, 1)=2, AND(COUNTIF(AX11:AX12, 1)=1, AX14=0)), 1, 0))&gt;=2, AW11+AW12+IF(OR(COUNTIF(AX11:AX12, 1)=2, AND(COUNTIF(AX11:AX12, 1)=1, AX14=0)), 1, 0)-2, AW11+AW12+IF(OR(COUNTIF(AX11:AX12, 1)=2, AND(COUNTIF(AX11:AX12, 1)=1, AX14=0)), 1, 0))</f>
@@ -4078,7 +4358,7 @@
       </c>
       <c r="AZ14" s="9">
         <f>IF(AF14=0,BIN2DEC(CONCATENATE(AP14,AQ14,AR14,AS14,AU14,AV14,AW14,AX14))+BIN2DEC(CONCATENATE(AF14,AG14,AH14,AI14,AK14,AL14,AM14,AN14))*2^8,-(BIN2DEC(CONCATENATE((AP14-1)*(-1),(AQ14-1)*(-1),(AR14-1)*(-1),(AS14-1)*(-1),(AU14-1)*(-1),(AV14-1)*(-1),(AW14-1)*(-1),(AX14-1)*(-1))))-BIN2DEC(CONCATENATE((AF14-1)*(-1),(AG14-1)*(-1),(AH14-1)*(-1),(AI14-1)*(-1),(AK14-1)*(-1),(AL14-1)*(-1),(AM14-1)*(-1),(AN14-1)*(-1)))*2^8-1)</f>
-        <v>-22496</v>
+        <v>-15604</v>
       </c>
       <c r="BA14" s="7" t="s">
         <v>25</v>
@@ -4089,33 +4369,47 @@
       <c r="BE14" s="1"/>
       <c r="BF14" s="1">
         <f>BF11+BF12</f>
-        <v>43040</v>
+        <v>49932</v>
       </c>
       <c r="BG14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="BH14" s="4"/>
-      <c r="BI14" s="13"/>
-      <c r="BJ14" s="13"/>
-      <c r="BK14" s="13"/>
-      <c r="BL14" s="13"/>
+      <c r="BI14" s="12"/>
+      <c r="BJ14" s="12"/>
+      <c r="BK14" s="12"/>
+      <c r="BL14" s="12"/>
+      <c r="BP14">
+        <v>9</v>
+      </c>
+      <c r="BQ14">
+        <f t="shared" si="4"/>
+        <v>512</v>
+      </c>
+      <c r="BR14">
+        <v>512</v>
+      </c>
+      <c r="BT14">
+        <f>IF(AM7,BR14,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="4"/>
-        <v>-22496</v>
+        <f t="shared" si="5"/>
+        <v>-15604</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>63</v>
       </c>
       <c r="G15" s="6">
@@ -4124,11 +4418,11 @@
       </c>
       <c r="H15" s="6">
         <f>IF(AND(COUNTIF(I15:$Y15, 1) =0,H9=1), 2-1, IF(H9=1,0,IF(COUNTIF(I15:$Y15, 1) =0,0,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="6">
         <f>IF(AND(COUNTIF(J15:$Y15, 1) =0,I9=1), 2-1, IF(I9=1,0,IF(COUNTIF(J15:$Y15, 1) =0,0,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="6">
         <f>IF(AND(COUNTIF(K15:$Y15, 1) =0,J9=1), 2-1, IF(J9=1,0,IF(COUNTIF(K15:$Y15, 1) =0,0,1)))</f>
@@ -4139,7 +4433,7 @@
       </c>
       <c r="L15" s="6">
         <f>IF(AND(COUNTIF(M15:$Y15, 1) =0,L9=1), 2-1, IF(L9=1,0,IF(COUNTIF(M15:$Y15, 1) =0,0,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="6">
         <f>IF(AND(COUNTIF(N15:$Y15, 1) =0,M9=1), 2-1, IF(M9=1,0,IF(COUNTIF(N15:$Y15, 1) =0,0,1)))</f>
@@ -4147,11 +4441,11 @@
       </c>
       <c r="N15" s="6">
         <f>IF(AND(COUNTIF(O15:$Y15, 1) =0,N9=1), 2-1, IF(N9=1,0,IF(COUNTIF(O15:$Y15, 1) =0,0,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="6">
         <f>IF(AND(COUNTIF(P15:$Y15, 1) =0,O9=1), 2-1, IF(O9=1,0,IF(COUNTIF(P15:$Y15, 1) =0,0,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>4</v>
@@ -4166,7 +4460,7 @@
       </c>
       <c r="S15" s="6">
         <f>IF(AND(COUNTIF(T15:$Y15, 1) =0,S9=1), 2-1, IF(S9=1,0,IF(COUNTIF(T15:$Y15, 1) =0,0,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="6">
         <f>IF(AND(COUNTIF(U15:$Y15, 1) =0,T9=1), 2-1, IF(T9=1,0,IF(COUNTIF(U15:$Y15, 1) =0,0,1)))</f>
@@ -4177,18 +4471,18 @@
       </c>
       <c r="V15" s="6">
         <f>IF(AND(COUNTIF(W15:$Y15, 1) =0,V9=1), 2-1, IF(V9=1,0,IF(COUNTIF(W15:$Y15, 1) =0,0,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="6">
         <f>IF(AND(COUNTIF(X15:$Y15, 1) =0,W9=1), 2-1, IF(W9=1,0,IF(COUNTIF(X15:$Y15, 1) =0,0,1)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="6">
         <f>IF(AND(COUNTIF(Y15:$Y15, 1) =0,X9=1), 2-1, IF(X9=1,0,IF(COUNTIF(Y15:$Y15, 1) =0,0,1)))</f>
         <v>0</v>
       </c>
       <c r="Y15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z15" s="1"/>
@@ -4226,12 +4520,26 @@
       <c r="BF15" s="1"/>
       <c r="BG15" s="1"/>
       <c r="BH15" s="4"/>
-      <c r="BI15" s="13"/>
-      <c r="BJ15" s="13"/>
-      <c r="BK15" s="13"/>
-      <c r="BL15" s="13"/>
+      <c r="BI15" s="12"/>
+      <c r="BJ15" s="12"/>
+      <c r="BK15" s="12"/>
+      <c r="BL15" s="12"/>
+      <c r="BP15">
+        <v>10</v>
+      </c>
+      <c r="BQ15">
+        <f t="shared" si="4"/>
+        <v>1024</v>
+      </c>
+      <c r="BR15">
+        <v>1024</v>
+      </c>
+      <c r="BT15">
+        <f>IF(AL7,BR15,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -4264,40 +4572,40 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="10" t="s">
+      <c r="AG16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
       <c r="AJ16" s="2">
         <f>IF(OR(COUNTIF(AF11:AF12,1)=2,AND(COUNTIF(AF11:AF12,1)=1,IF(OR(COUNTIF(AG11:AG12,1)=2,AND(COUNTIF(AG11:AG12,1)=1,AG14=0)),1,0))),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AK16" s="10" t="s">
+      <c r="AK16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="10"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
       <c r="AN16" s="2">
         <f>IF(MOD(COUNTIF(AP14:AX14,1),2)=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16" s="2"/>
-      <c r="AP16" s="10" t="s">
+      <c r="AP16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
       <c r="AS16" s="2">
         <f>IF(OR(COUNTIF(AU11:AU12, 1)=2, AND(COUNTIF(AU11:AU12, 1)=1, AU14=0)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="2"/>
       <c r="AU16" s="2"/>
-      <c r="AV16" s="12" t="s">
+      <c r="AV16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AW16" s="12"/>
+      <c r="AW16" s="13"/>
       <c r="AX16" s="2">
         <f>IF(COUNTIF(AF14:AX14,1)=0,1,0)</f>
         <v>0</v>
@@ -4326,8 +4634,22 @@
       <c r="BJ16" s="4"/>
       <c r="BK16" s="4"/>
       <c r="BL16" s="4"/>
+      <c r="BP16">
+        <v>11</v>
+      </c>
+      <c r="BQ16">
+        <f t="shared" si="4"/>
+        <v>2048</v>
+      </c>
+      <c r="BR16">
+        <v>2048</v>
+      </c>
+      <c r="BT16">
+        <f>IF(AK7,BR16,0)</f>
+        <v>2048</v>
+      </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -4392,8 +4714,22 @@
       <c r="BJ17" s="4"/>
       <c r="BK17" s="4"/>
       <c r="BL17" s="4"/>
+      <c r="BP17">
+        <v>12</v>
+      </c>
+      <c r="BQ17">
+        <f t="shared" si="4"/>
+        <v>4096</v>
+      </c>
+      <c r="BR17">
+        <v>4096</v>
+      </c>
+      <c r="BT17">
+        <f>IF(AI7,BR17,0)</f>
+        <v>4096</v>
+      </c>
     </row>
-    <row r="18" spans="1:64" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:72" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -4428,75 +4764,75 @@
       </c>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1">
-        <f t="shared" ref="AF18:AW18" si="8">G5</f>
+        <f t="shared" ref="AF18:AW18" si="9">G5</f>
         <v>0</v>
       </c>
       <c r="AG18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AH18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AJ18" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
       <c r="AK18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AL18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AM18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AN18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AO18" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
       <c r="AP18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AQ18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AR18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AT18" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>.</v>
       </c>
       <c r="AU18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AV18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AW18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AX18" s="1">
@@ -4518,15 +4854,29 @@
       </c>
       <c r="BG18" s="1"/>
       <c r="BH18" s="4"/>
-      <c r="BI18" s="13" t="str">
+      <c r="BI18" s="12" t="str">
         <f>IF(AZ21=BF21,"При сложении положительного и отрицательного слагаемых получено положительное число. Результат корректен, совпадает с суммой десятичных эквивалентов.","При сложении двух положительных слагаемых получено отрицательное число. Результат выполнения операции некорректен вследствие возникающего переполнения.")</f>
         <v>При сложении положительного и отрицательного слагаемых получено положительное число. Результат корректен, совпадает с суммой десятичных эквивалентов.</v>
       </c>
-      <c r="BJ18" s="13"/>
-      <c r="BK18" s="13"/>
-      <c r="BL18" s="13"/>
+      <c r="BJ18" s="12"/>
+      <c r="BK18" s="12"/>
+      <c r="BL18" s="12"/>
+      <c r="BP18">
+        <v>13</v>
+      </c>
+      <c r="BQ18">
+        <f t="shared" si="4"/>
+        <v>8192</v>
+      </c>
+      <c r="BR18">
+        <v>8192</v>
+      </c>
+      <c r="BT18">
+        <f>IF(AH7,BR18,0)</f>
+        <v>8192</v>
+      </c>
     </row>
-    <row r="19" spans="1:64" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:72" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -4563,75 +4913,75 @@
       </c>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1">
-        <f t="shared" ref="AF19:AW19" si="9">G10</f>
+        <f t="shared" ref="AF19:AW19" si="10">G10</f>
         <v>1</v>
       </c>
       <c r="AG19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AH19" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AI19" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="AJ19" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>.</v>
       </c>
       <c r="AK19" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AL19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AM19" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AN19" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AO19" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>.</v>
       </c>
       <c r="AP19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AQ19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="AS19" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AT19" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>.</v>
       </c>
       <c r="AU19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AV19" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="AW19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AX19" s="1">
@@ -4651,16 +5001,30 @@
       <c r="BE19" s="1"/>
       <c r="BF19" s="1">
         <f>C10</f>
-        <v>-5232</v>
+        <v>-12124</v>
       </c>
       <c r="BG19" s="1"/>
       <c r="BH19" s="4"/>
-      <c r="BI19" s="13"/>
-      <c r="BJ19" s="13"/>
-      <c r="BK19" s="13"/>
-      <c r="BL19" s="13"/>
+      <c r="BI19" s="12"/>
+      <c r="BJ19" s="12"/>
+      <c r="BK19" s="12"/>
+      <c r="BL19" s="12"/>
+      <c r="BP19">
+        <v>14</v>
+      </c>
+      <c r="BQ19">
+        <f t="shared" si="4"/>
+        <v>16384</v>
+      </c>
+      <c r="BR19">
+        <v>16384</v>
+      </c>
+      <c r="BT19">
+        <f>IF(AG7,BR19,0)</f>
+        <v>16384</v>
+      </c>
     </row>
-    <row r="20" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -4771,12 +5135,26 @@
       </c>
       <c r="BG20" s="1"/>
       <c r="BH20" s="4"/>
-      <c r="BI20" s="13"/>
-      <c r="BJ20" s="13"/>
-      <c r="BK20" s="13"/>
-      <c r="BL20" s="13"/>
+      <c r="BI20" s="12"/>
+      <c r="BJ20" s="12"/>
+      <c r="BK20" s="12"/>
+      <c r="BL20" s="12"/>
+      <c r="BP20">
+        <v>15</v>
+      </c>
+      <c r="BQ20">
+        <f t="shared" si="4"/>
+        <v>32768</v>
+      </c>
+      <c r="BR20">
+        <v>32768</v>
+      </c>
+      <c r="BT20">
+        <f>IF(AF7,BR20,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:64" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:72" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -4809,76 +5187,76 @@
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1">
-        <f t="shared" ref="AF21:AH21" si="10">IF( (AF18+AF19+IF(OR(COUNTIF(AG18:AG19, 1)=2, AND(COUNTIF(AG18:AG19, 1)=1, AG21=0)), 1, 0))&gt;=2, AF18+AF19+IF(OR(COUNTIF(AG18:AG19, 1)=2, AND(COUNTIF(AG18:AG19, 1)=1, AG21=0)), 1, 0)-2, AF18+AF19+IF(OR(COUNTIF(AG18:AG19, 1)=2, AND(COUNTIF(AG18:AG19, 1)=1, AG21=0)), 1, 0))</f>
+        <f t="shared" ref="AF21:AH21" si="11">IF( (AF18+AF19+IF(OR(COUNTIF(AG18:AG19, 1)=2, AND(COUNTIF(AG18:AG19, 1)=1, AG21=0)), 1, 0))&gt;=2, AF18+AF19+IF(OR(COUNTIF(AG18:AG19, 1)=2, AND(COUNTIF(AG18:AG19, 1)=1, AG21=0)), 1, 0)-2, AF18+AF19+IF(OR(COUNTIF(AG18:AG19, 1)=2, AND(COUNTIF(AG18:AG19, 1)=1, AG21=0)), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="AG21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH21" s="1">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="AI21" s="1">
-        <f t="shared" ref="AI21" si="11">IF( (AI18+AI19+IF(OR(COUNTIF(AK18:AK19, 1)=2, AND(COUNTIF(AK18:AK19, 1)=1, AK21=0)), 1, 0))&gt;=2, AI18+AI19+IF(OR(COUNTIF(AK18:AK19, 1)=2, AND(COUNTIF(AK18:AK19, 1)=1, AK21=0)), 1, 0)-2, AI18+AI19+IF(OR(COUNTIF(AK18:AK19, 1)=2, AND(COUNTIF(AK18:AK19, 1)=1, AK21=0)), 1, 0))</f>
+        <f t="shared" ref="AI21" si="12">IF( (AI18+AI19+IF(OR(COUNTIF(AK18:AK19, 1)=2, AND(COUNTIF(AK18:AK19, 1)=1, AK21=0)), 1, 0))&gt;=2, AI18+AI19+IF(OR(COUNTIF(AK18:AK19, 1)=2, AND(COUNTIF(AK18:AK19, 1)=1, AK21=0)), 1, 0)-2, AI18+AI19+IF(OR(COUNTIF(AK18:AK19, 1)=2, AND(COUNTIF(AK18:AK19, 1)=1, AK21=0)), 1, 0))</f>
         <v>1</v>
       </c>
       <c r="AJ21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AK21" s="1">
-        <f t="shared" ref="AK21:AM21" si="12">IF( (AK18+AK19+IF(OR(COUNTIF(AL18:AL19, 1)=2, AND(COUNTIF(AL18:AL19, 1)=1, AL21=0)), 1, 0))&gt;=2, AK18+AK19+IF(OR(COUNTIF(AL18:AL19, 1)=2, AND(COUNTIF(AL18:AL19, 1)=1, AL21=0)), 1, 0)-2, AK18+AK19+IF(OR(COUNTIF(AL18:AL19, 1)=2, AND(COUNTIF(AL18:AL19, 1)=1, AL21=0)), 1, 0))</f>
-        <v>0</v>
+        <f t="shared" ref="AK21:AM21" si="13">IF( (AK18+AK19+IF(OR(COUNTIF(AL18:AL19, 1)=2, AND(COUNTIF(AL18:AL19, 1)=1, AL21=0)), 1, 0))&gt;=2, AK18+AK19+IF(OR(COUNTIF(AL18:AL19, 1)=2, AND(COUNTIF(AL18:AL19, 1)=1, AL21=0)), 1, 0)-2, AK18+AK19+IF(OR(COUNTIF(AL18:AL19, 1)=2, AND(COUNTIF(AL18:AL19, 1)=1, AL21=0)), 1, 0))</f>
+        <v>1</v>
       </c>
       <c r="AL21" s="1">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AM21" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="AN21" s="1">
-        <f t="shared" ref="AN21" si="13">IF( (AN18+AN19+IF(OR(COUNTIF(AP18:AP19, 1)=2, AND(COUNTIF(AP18:AP19, 1)=1, AP21=0)), 1, 0))&gt;=2, AN18+AN19+IF(OR(COUNTIF(AP18:AP19, 1)=2, AND(COUNTIF(AP18:AP19, 1)=1, AP21=0)), 1, 0)-2, AN18+AN19+IF(OR(COUNTIF(AP18:AP19, 1)=2, AND(COUNTIF(AP18:AP19, 1)=1, AP21=0)), 1, 0))</f>
-        <v>1</v>
+        <f t="shared" ref="AN21" si="14">IF( (AN18+AN19+IF(OR(COUNTIF(AP18:AP19, 1)=2, AND(COUNTIF(AP18:AP19, 1)=1, AP21=0)), 1, 0))&gt;=2, AN18+AN19+IF(OR(COUNTIF(AP18:AP19, 1)=2, AND(COUNTIF(AP18:AP19, 1)=1, AP21=0)), 1, 0)-2, AN18+AN19+IF(OR(COUNTIF(AP18:AP19, 1)=2, AND(COUNTIF(AP18:AP19, 1)=1, AP21=0)), 1, 0))</f>
+        <v>0</v>
       </c>
       <c r="AO21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AP21" s="1">
-        <f t="shared" ref="AP21:AR21" si="14">IF( (AP18+AP19+IF(OR(COUNTIF(AQ18:AQ19, 1)=2, AND(COUNTIF(AQ18:AQ19, 1)=1, AQ21=0)), 1, 0))&gt;=2, AP18+AP19+IF(OR(COUNTIF(AQ18:AQ19, 1)=2, AND(COUNTIF(AQ18:AQ19, 1)=1, AQ21=0)), 1, 0)-2, AP18+AP19+IF(OR(COUNTIF(AQ18:AQ19, 1)=2, AND(COUNTIF(AQ18:AQ19, 1)=1, AQ21=0)), 1, 0))</f>
+        <f t="shared" ref="AP21:AR21" si="15">IF( (AP18+AP19+IF(OR(COUNTIF(AQ18:AQ19, 1)=2, AND(COUNTIF(AQ18:AQ19, 1)=1, AQ21=0)), 1, 0))&gt;=2, AP18+AP19+IF(OR(COUNTIF(AQ18:AQ19, 1)=2, AND(COUNTIF(AQ18:AQ19, 1)=1, AQ21=0)), 1, 0)-2, AP18+AP19+IF(OR(COUNTIF(AQ18:AQ19, 1)=2, AND(COUNTIF(AQ18:AQ19, 1)=1, AQ21=0)), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="AQ21" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AR21" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AS21" s="1">
-        <f t="shared" ref="AS21" si="15">IF( (AS18+AS19+IF(OR(COUNTIF(AU18:AU19, 1)=2, AND(COUNTIF(AU18:AU19, 1)=1, AU21=0)), 1, 0))&gt;=2, AS18+AS19+IF(OR(COUNTIF(AU18:AU19, 1)=2, AND(COUNTIF(AU18:AU19, 1)=1, AU21=0)), 1, 0)-2, AS18+AS19+IF(OR(COUNTIF(AU18:AU19, 1)=2, AND(COUNTIF(AU18:AU19, 1)=1, AU21=0)), 1, 0))</f>
-        <v>0</v>
+        <f t="shared" ref="AS21" si="16">IF( (AS18+AS19+IF(OR(COUNTIF(AU18:AU19, 1)=2, AND(COUNTIF(AU18:AU19, 1)=1, AU21=0)), 1, 0))&gt;=2, AS18+AS19+IF(OR(COUNTIF(AU18:AU19, 1)=2, AND(COUNTIF(AU18:AU19, 1)=1, AU21=0)), 1, 0)-2, AS18+AS19+IF(OR(COUNTIF(AU18:AU19, 1)=2, AND(COUNTIF(AU18:AU19, 1)=1, AU21=0)), 1, 0))</f>
+        <v>1</v>
       </c>
       <c r="AT21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AU21" s="1">
-        <f t="shared" ref="AU21:AW21" si="16">IF( (AU18+AU19+IF(OR(COUNTIF(AV18:AV19, 1)=2, AND(COUNTIF(AV18:AV19, 1)=1, AV21=0)), 1, 0))&gt;=2, AU18+AU19+IF(OR(COUNTIF(AV18:AV19, 1)=2, AND(COUNTIF(AV18:AV19, 1)=1, AV21=0)), 1, 0)-2, AU18+AU19+IF(OR(COUNTIF(AV18:AV19, 1)=2, AND(COUNTIF(AV18:AV19, 1)=1, AV21=0)), 1, 0))</f>
+        <f t="shared" ref="AU21:AW21" si="17">IF( (AU18+AU19+IF(OR(COUNTIF(AV18:AV19, 1)=2, AND(COUNTIF(AV18:AV19, 1)=1, AV21=0)), 1, 0))&gt;=2, AU18+AU19+IF(OR(COUNTIF(AV18:AV19, 1)=2, AND(COUNTIF(AV18:AV19, 1)=1, AV21=0)), 1, 0)-2, AU18+AU19+IF(OR(COUNTIF(AV18:AV19, 1)=2, AND(COUNTIF(AV18:AV19, 1)=1, AV21=0)), 1, 0))</f>
         <v>1</v>
       </c>
       <c r="AV21" s="1">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="AW21" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AX21" s="1">
-        <f t="shared" ref="AX21" si="17">IF((AX18+AX19)=2,0,AX18+AX19)</f>
+        <f t="shared" ref="AX21" si="18">IF((AX18+AX19)=2,0,AX18+AX19)</f>
         <v>0</v>
       </c>
       <c r="AY21" s="7" t="s">
@@ -4886,7 +5264,7 @@
       </c>
       <c r="AZ21" s="9">
         <f>IF(AF21=0,BIN2DEC(CONCATENATE(AP21,AQ21,AR21,AS21,AU21,AV21,AW21,AX21))+BIN2DEC(CONCATENATE(AF21,AG21,AH21,AI21,AK21,AL21,AM21,AN21))*2^8,-(BIN2DEC(CONCATENATE((AP21-1)*(-1),(AQ21-1)*(-1),(AR21-1)*(-1),(AS21-1)*(-1),(AU21-1)*(-1),(AV21-1)*(-1),(AW21-1)*(-1),(AX21-1)*(-1))))-BIN2DEC(CONCATENATE((AF21-1)*(-1),(AG21-1)*(-1),(AH21-1)*(-1),(AI21-1)*(-1),(AK21-1)*(-1),(AL21-1)*(-1),(AM21-1)*(-1),(AN21-1)*(-1)))*2^8-1)</f>
-        <v>13672</v>
+        <v>6780</v>
       </c>
       <c r="BA21" s="7" t="s">
         <v>25</v>
@@ -4896,19 +5274,33 @@
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
       <c r="BF21" s="1">
-        <f t="shared" ref="BF21" si="18">BF18+BF19</f>
-        <v>13672</v>
+        <f t="shared" ref="BF21" si="19">BF18+BF19</f>
+        <v>6780</v>
       </c>
       <c r="BG21" s="7" t="s">
         <v>25</v>
       </c>
       <c r="BH21" s="4"/>
-      <c r="BI21" s="13"/>
-      <c r="BJ21" s="13"/>
-      <c r="BK21" s="13"/>
-      <c r="BL21" s="13"/>
+      <c r="BI21" s="12"/>
+      <c r="BJ21" s="12"/>
+      <c r="BK21" s="12"/>
+      <c r="BL21" s="12"/>
+      <c r="BP21">
+        <v>16</v>
+      </c>
+      <c r="BQ21">
+        <f t="shared" si="4"/>
+        <v>65536</v>
+      </c>
+      <c r="BR21">
+        <v>65536</v>
+      </c>
+      <c r="BT21">
+        <f t="shared" ref="BT21" si="20">IF(AX23,BR21,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -4969,12 +5361,12 @@
       <c r="BF22" s="1"/>
       <c r="BG22" s="1"/>
       <c r="BH22" s="4"/>
-      <c r="BI22" s="13"/>
-      <c r="BJ22" s="13"/>
-      <c r="BK22" s="13"/>
-      <c r="BL22" s="13"/>
+      <c r="BI22" s="12"/>
+      <c r="BJ22" s="12"/>
+      <c r="BK22" s="12"/>
+      <c r="BL22" s="12"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -5007,30 +5399,30 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
-      <c r="AG23" s="10" t="s">
+      <c r="AG23" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
       <c r="AJ23" s="2">
         <f>IF(OR(COUNTIF(AF18:AF19,1)=2,AND(COUNTIF(AF18:AF19,1)=1,IF(OR(COUNTIF(AG18:AG19,1)=2,AND(COUNTIF(AG18:AG19,1)=1,AG21=0)),1,0))),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AK23" s="10" t="s">
+      <c r="AK23" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AL23" s="10"/>
-      <c r="AM23" s="10"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
       <c r="AN23" s="2">
         <f>IF(MOD(COUNTIF(AP21:AX21,1),2)=0,1,0)</f>
         <v>0</v>
       </c>
       <c r="AO23" s="2"/>
-      <c r="AP23" s="10" t="s">
+      <c r="AP23" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AQ23" s="10"/>
-      <c r="AR23" s="10"/>
+      <c r="AQ23" s="11"/>
+      <c r="AR23" s="11"/>
       <c r="AS23" s="2">
         <f>IF(OR(COUNTIF(AU18:AU19, 1)=2, AND(COUNTIF(AU18:AU19, 1)=1, AU21=0)),1,0)</f>
         <v>0</v>
@@ -5070,7 +5462,7 @@
       <c r="BK23" s="4"/>
       <c r="BL23" s="4"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -5136,7 +5528,7 @@
       <c r="BK24" s="4"/>
       <c r="BL24" s="4"/>
     </row>
-    <row r="25" spans="1:64" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:72" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -5171,75 +5563,75 @@
       </c>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1">
-        <f t="shared" ref="AF25:AU26" si="19">G10</f>
+        <f t="shared" ref="AF25:AU26" si="21">G10</f>
         <v>1</v>
       </c>
       <c r="AG25" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AH25" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="AI25" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="AJ25" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>.</v>
       </c>
       <c r="AK25" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AM25" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="AN25" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="AO25" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>.</v>
       </c>
       <c r="AP25" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AQ25" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="AS25" s="1">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="AT25" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>.</v>
       </c>
       <c r="AU25" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AV25" s="1">
-        <f t="shared" ref="AV25:AW26" si="20">W10</f>
-        <v>0</v>
+        <f t="shared" ref="AV25:AW26" si="22">W10</f>
+        <v>1</v>
       </c>
       <c r="AW25" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AX25" s="1">
@@ -5257,19 +5649,19 @@
       <c r="BE25" s="1"/>
       <c r="BF25" s="1">
         <f>C10</f>
-        <v>-5232</v>
+        <v>-12124</v>
       </c>
       <c r="BG25" s="1"/>
       <c r="BH25" s="4"/>
-      <c r="BI25" s="13" t="str">
+      <c r="BI25" s="12" t="str">
         <f>IF(AZ28=BF28,"При сложении положительного и отрицательного слагаемых получено положительное число. Результат корректен, совпадает с суммой десятичных эквивалентов.","При сложении двух положительных слагаемых получено отрицательное число. Результат выполнения операции некорректен вследствие возникающего переполнения.")</f>
         <v>При сложении положительного и отрицательного слагаемых получено положительное число. Результат корректен, совпадает с суммой десятичных эквивалентов.</v>
       </c>
-      <c r="BJ25" s="13"/>
-      <c r="BK25" s="13"/>
-      <c r="BL25" s="13"/>
+      <c r="BJ25" s="12"/>
+      <c r="BK25" s="12"/>
+      <c r="BL25" s="12"/>
     </row>
-    <row r="26" spans="1:64" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:72" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -5306,75 +5698,75 @@
       </c>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AG26" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AH26" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AI26" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AJ26" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>.</v>
       </c>
       <c r="AK26" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AM26" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AN26" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AO26" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>.</v>
       </c>
       <c r="AP26" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AQ26" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AS26" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AT26" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>.</v>
       </c>
       <c r="AU26" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AV26" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AW26" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AX26" s="1">
@@ -5398,12 +5790,12 @@
       </c>
       <c r="BG26" s="1"/>
       <c r="BH26" s="4"/>
-      <c r="BI26" s="13"/>
-      <c r="BJ26" s="13"/>
-      <c r="BK26" s="13"/>
-      <c r="BL26" s="13"/>
+      <c r="BI26" s="12"/>
+      <c r="BJ26" s="12"/>
+      <c r="BK26" s="12"/>
+      <c r="BL26" s="12"/>
     </row>
-    <row r="27" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -5514,12 +5906,12 @@
       </c>
       <c r="BG27" s="1"/>
       <c r="BH27" s="4"/>
-      <c r="BI27" s="13"/>
-      <c r="BJ27" s="13"/>
-      <c r="BK27" s="13"/>
-      <c r="BL27" s="13"/>
+      <c r="BI27" s="12"/>
+      <c r="BJ27" s="12"/>
+      <c r="BK27" s="12"/>
+      <c r="BL27" s="12"/>
     </row>
-    <row r="28" spans="1:64" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:72" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -5552,76 +5944,76 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1">
-        <f t="shared" ref="AF28:AH28" si="21">IF( (AF25+AF26+IF(OR(COUNTIF(AG25:AG26, 1)=2, AND(COUNTIF(AG25:AG26, 1)=1, AG28=0)), 1, 0))&gt;=2, AF25+AF26+IF(OR(COUNTIF(AG25:AG26, 1)=2, AND(COUNTIF(AG25:AG26, 1)=1, AG28=0)), 1, 0)-2, AF25+AF26+IF(OR(COUNTIF(AG25:AG26, 1)=2, AND(COUNTIF(AG25:AG26, 1)=1, AG28=0)), 1, 0))</f>
+        <f t="shared" ref="AF28:AH28" si="23">IF( (AF25+AF26+IF(OR(COUNTIF(AG25:AG26, 1)=2, AND(COUNTIF(AG25:AG26, 1)=1, AG28=0)), 1, 0))&gt;=2, AF25+AF26+IF(OR(COUNTIF(AG25:AG26, 1)=2, AND(COUNTIF(AG25:AG26, 1)=1, AG28=0)), 1, 0)-2, AF25+AF26+IF(OR(COUNTIF(AG25:AG26, 1)=2, AND(COUNTIF(AG25:AG26, 1)=1, AG28=0)), 1, 0))</f>
         <v>1</v>
       </c>
       <c r="AG28" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AH28" s="1">
-        <f t="shared" si="21"/>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="AI28" s="1">
-        <f t="shared" ref="AI28" si="22">IF( (AI25+AI26+IF(OR(COUNTIF(AK25:AK26, 1)=2, AND(COUNTIF(AK25:AK26, 1)=1, AK28=0)), 1, 0))&gt;=2, AI25+AI26+IF(OR(COUNTIF(AK25:AK26, 1)=2, AND(COUNTIF(AK25:AK26, 1)=1, AK28=0)), 1, 0)-2, AI25+AI26+IF(OR(COUNTIF(AK25:AK26, 1)=2, AND(COUNTIF(AK25:AK26, 1)=1, AK28=0)), 1, 0))</f>
+        <f t="shared" ref="AI28" si="24">IF( (AI25+AI26+IF(OR(COUNTIF(AK25:AK26, 1)=2, AND(COUNTIF(AK25:AK26, 1)=1, AK28=0)), 1, 0))&gt;=2, AI25+AI26+IF(OR(COUNTIF(AK25:AK26, 1)=2, AND(COUNTIF(AK25:AK26, 1)=1, AK28=0)), 1, 0)-2, AI25+AI26+IF(OR(COUNTIF(AK25:AK26, 1)=2, AND(COUNTIF(AK25:AK26, 1)=1, AK28=0)), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="AJ28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AK28" s="1">
-        <f t="shared" ref="AK28:AM28" si="23">IF( (AK25+AK26+IF(OR(COUNTIF(AL25:AL26, 1)=2, AND(COUNTIF(AL25:AL26, 1)=1, AL28=0)), 1, 0))&gt;=2, AK25+AK26+IF(OR(COUNTIF(AL25:AL26, 1)=2, AND(COUNTIF(AL25:AL26, 1)=1, AL28=0)), 1, 0)-2, AK25+AK26+IF(OR(COUNTIF(AL25:AL26, 1)=2, AND(COUNTIF(AL25:AL26, 1)=1, AL28=0)), 1, 0))</f>
+        <f t="shared" ref="AK28:AM28" si="25">IF( (AK25+AK26+IF(OR(COUNTIF(AL25:AL26, 1)=2, AND(COUNTIF(AL25:AL26, 1)=1, AL28=0)), 1, 0))&gt;=2, AK25+AK26+IF(OR(COUNTIF(AL25:AL26, 1)=2, AND(COUNTIF(AL25:AL26, 1)=1, AL28=0)), 1, 0)-2, AK25+AK26+IF(OR(COUNTIF(AL25:AL26, 1)=2, AND(COUNTIF(AL25:AL26, 1)=1, AL28=0)), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="AL28" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1</v>
       </c>
       <c r="AM28" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1</v>
       </c>
       <c r="AN28" s="1">
-        <f t="shared" ref="AN28" si="24">IF( (AN25+AN26+IF(OR(COUNTIF(AP25:AP26, 1)=2, AND(COUNTIF(AP25:AP26, 1)=1, AP28=0)), 1, 0))&gt;=2, AN25+AN26+IF(OR(COUNTIF(AP25:AP26, 1)=2, AND(COUNTIF(AP25:AP26, 1)=1, AP28=0)), 1, 0)-2, AN25+AN26+IF(OR(COUNTIF(AP25:AP26, 1)=2, AND(COUNTIF(AP25:AP26, 1)=1, AP28=0)), 1, 0))</f>
-        <v>1</v>
+        <f t="shared" ref="AN28" si="26">IF( (AN25+AN26+IF(OR(COUNTIF(AP25:AP26, 1)=2, AND(COUNTIF(AP25:AP26, 1)=1, AP28=0)), 1, 0))&gt;=2, AN25+AN26+IF(OR(COUNTIF(AP25:AP26, 1)=2, AND(COUNTIF(AP25:AP26, 1)=1, AP28=0)), 1, 0)-2, AN25+AN26+IF(OR(COUNTIF(AP25:AP26, 1)=2, AND(COUNTIF(AP25:AP26, 1)=1, AP28=0)), 1, 0))</f>
+        <v>0</v>
       </c>
       <c r="AO28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AP28" s="1">
-        <f t="shared" ref="AP28:AR28" si="25">IF( (AP25+AP26+IF(OR(COUNTIF(AQ25:AQ26, 1)=2, AND(COUNTIF(AQ25:AQ26, 1)=1, AQ28=0)), 1, 0))&gt;=2, AP25+AP26+IF(OR(COUNTIF(AQ25:AQ26, 1)=2, AND(COUNTIF(AQ25:AQ26, 1)=1, AQ28=0)), 1, 0)-2, AP25+AP26+IF(OR(COUNTIF(AQ25:AQ26, 1)=2, AND(COUNTIF(AQ25:AQ26, 1)=1, AQ28=0)), 1, 0))</f>
+        <f t="shared" ref="AP28:AR28" si="27">IF( (AP25+AP26+IF(OR(COUNTIF(AQ25:AQ26, 1)=2, AND(COUNTIF(AQ25:AQ26, 1)=1, AQ28=0)), 1, 0))&gt;=2, AP25+AP26+IF(OR(COUNTIF(AQ25:AQ26, 1)=2, AND(COUNTIF(AQ25:AQ26, 1)=1, AQ28=0)), 1, 0)-2, AP25+AP26+IF(OR(COUNTIF(AQ25:AQ26, 1)=2, AND(COUNTIF(AQ25:AQ26, 1)=1, AQ28=0)), 1, 0))</f>
         <v>1</v>
       </c>
       <c r="AQ28" s="1">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="AR28" s="1">
-        <f t="shared" si="25"/>
-        <v>1</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="AS28" s="1">
-        <f t="shared" ref="AS28" si="26">IF( (AS25+AS26+IF(OR(COUNTIF(AU25:AU26, 1)=2, AND(COUNTIF(AU25:AU26, 1)=1, AU28=0)), 1, 0))&gt;=2, AS25+AS26+IF(OR(COUNTIF(AU25:AU26, 1)=2, AND(COUNTIF(AU25:AU26, 1)=1, AU28=0)), 1, 0)-2, AS25+AS26+IF(OR(COUNTIF(AU25:AU26, 1)=2, AND(COUNTIF(AU25:AU26, 1)=1, AU28=0)), 1, 0))</f>
-        <v>1</v>
+        <f t="shared" ref="AS28" si="28">IF( (AS25+AS26+IF(OR(COUNTIF(AU25:AU26, 1)=2, AND(COUNTIF(AU25:AU26, 1)=1, AU28=0)), 1, 0))&gt;=2, AS25+AS26+IF(OR(COUNTIF(AU25:AU26, 1)=2, AND(COUNTIF(AU25:AU26, 1)=1, AU28=0)), 1, 0)-2, AS25+AS26+IF(OR(COUNTIF(AU25:AU26, 1)=2, AND(COUNTIF(AU25:AU26, 1)=1, AU28=0)), 1, 0))</f>
+        <v>0</v>
       </c>
       <c r="AT28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AU28" s="1">
-        <f t="shared" ref="AU28:AW28" si="27">IF( (AU25+AU26+IF(OR(COUNTIF(AV25:AV26, 1)=2, AND(COUNTIF(AV25:AV26, 1)=1, AV28=0)), 1, 0))&gt;=2, AU25+AU26+IF(OR(COUNTIF(AV25:AV26, 1)=2, AND(COUNTIF(AV25:AV26, 1)=1, AV28=0)), 1, 0)-2, AU25+AU26+IF(OR(COUNTIF(AV25:AV26, 1)=2, AND(COUNTIF(AV25:AV26, 1)=1, AV28=0)), 1, 0))</f>
+        <f t="shared" ref="AU28:AW28" si="29">IF( (AU25+AU26+IF(OR(COUNTIF(AV25:AV26, 1)=2, AND(COUNTIF(AV25:AV26, 1)=1, AV28=0)), 1, 0))&gt;=2, AU25+AU26+IF(OR(COUNTIF(AV25:AV26, 1)=2, AND(COUNTIF(AV25:AV26, 1)=1, AV28=0)), 1, 0)-2, AU25+AU26+IF(OR(COUNTIF(AV25:AV26, 1)=2, AND(COUNTIF(AV25:AV26, 1)=1, AV28=0)), 1, 0))</f>
         <v>1</v>
       </c>
       <c r="AV28" s="1">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>1</v>
       </c>
       <c r="AW28" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AX28" s="1">
-        <f t="shared" ref="AX28" si="28">IF((AX25+AX26)=2,0,AX25+AX26)</f>
+        <f t="shared" ref="AX28" si="30">IF((AX25+AX26)=2,0,AX25+AX26)</f>
         <v>0</v>
       </c>
       <c r="AY28" s="7" t="s">
@@ -5629,7 +6021,7 @@
       </c>
       <c r="AZ28" s="9">
         <f>IF(AF28=0,BIN2DEC(CONCATENATE(AP28,AQ28,AR28,AS28,AU28,AV28,AW28,AX28))+BIN2DEC(CONCATENATE(AF28,AG28,AH28,AI28,AK28,AL28,AM28,AN28))*2^8,-(BIN2DEC(CONCATENATE((AP28-1)*(-1),(AQ28-1)*(-1),(AR28-1)*(-1),(AS28-1)*(-1),(AU28-1)*(-1),(AV28-1)*(-1),(AW28-1)*(-1),(AX28-1)*(-1))))-BIN2DEC(CONCATENATE((AF28-1)*(-1),(AG28-1)*(-1),(AH28-1)*(-1),(AI28-1)*(-1),(AK28-1)*(-1),(AL28-1)*(-1),(AM28-1)*(-1),(AN28-1)*(-1)))*2^8-1)</f>
-        <v>-24136</v>
+        <v>-31028</v>
       </c>
       <c r="BA28" s="7" t="s">
         <v>25</v>
@@ -5639,19 +6031,19 @@
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
       <c r="BF28" s="1">
-        <f t="shared" ref="BF28" si="29">BF25+BF26</f>
-        <v>-24136</v>
+        <f t="shared" ref="BF28" si="31">BF25+BF26</f>
+        <v>-31028</v>
       </c>
       <c r="BG28" s="7" t="s">
         <v>25</v>
       </c>
       <c r="BH28" s="4"/>
-      <c r="BI28" s="13"/>
-      <c r="BJ28" s="13"/>
-      <c r="BK28" s="13"/>
-      <c r="BL28" s="13"/>
+      <c r="BI28" s="12"/>
+      <c r="BJ28" s="12"/>
+      <c r="BK28" s="12"/>
+      <c r="BL28" s="12"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -5712,12 +6104,12 @@
       <c r="BF29" s="1"/>
       <c r="BG29" s="1"/>
       <c r="BH29" s="4"/>
-      <c r="BI29" s="13"/>
-      <c r="BJ29" s="13"/>
-      <c r="BK29" s="13"/>
-      <c r="BL29" s="13"/>
+      <c r="BI29" s="12"/>
+      <c r="BJ29" s="12"/>
+      <c r="BK29" s="12"/>
+      <c r="BL29" s="12"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -5750,30 +6142,30 @@
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="10" t="s">
+      <c r="AG30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AH30" s="10"/>
-      <c r="AI30" s="10"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
       <c r="AJ30" s="2">
         <f>IF(OR(COUNTIF(AF25:AF26,1)=2,AND(COUNTIF(AF25:AF26,1)=1,IF(OR(COUNTIF(AG25:AG26,1)=2,AND(COUNTIF(AG25:AG26,1)=1,AG28=0)),1,0))),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AK30" s="10" t="s">
+      <c r="AK30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AL30" s="10"/>
-      <c r="AM30" s="10"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
       <c r="AN30" s="2">
         <f>IF(MOD(COUNTIF(AP28:AX28,1),2)=0,1,0)</f>
         <v>1</v>
       </c>
       <c r="AO30" s="2"/>
-      <c r="AP30" s="10" t="s">
+      <c r="AP30" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AQ30" s="10"/>
-      <c r="AR30" s="10"/>
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="11"/>
       <c r="AS30" s="2">
         <f>IF(OR(COUNTIF(AU25:AU26, 1)=2, AND(COUNTIF(AU25:AU26, 1)=1, AU28=0)),1,0)</f>
         <v>0</v>
@@ -5813,7 +6205,7 @@
       <c r="BK30" s="4"/>
       <c r="BL30" s="4"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -5879,7 +6271,7 @@
       <c r="BK31" s="4"/>
       <c r="BL31" s="4"/>
     </row>
-    <row r="32" spans="1:64" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:72" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -5914,79 +6306,79 @@
       </c>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1">
-        <f t="shared" ref="AF32:AU33" si="30">G11</f>
+        <f t="shared" ref="AF32:AU33" si="32">G11</f>
         <v>1</v>
       </c>
       <c r="AG32" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AH32" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AI32" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AJ32" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>.</v>
       </c>
       <c r="AK32" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AL32" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AM32" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AN32" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AO32" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>.</v>
       </c>
       <c r="AP32" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AQ32" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AR32" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AS32" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AT32" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>.</v>
       </c>
       <c r="AU32" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AV32" s="1">
-        <f t="shared" ref="AP32:AX33" si="31">W11</f>
+        <f t="shared" ref="AP32:AX33" si="33">W11</f>
         <v>0</v>
       </c>
       <c r="AW32" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AX32" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AY32" s="1"/>
@@ -6004,15 +6396,15 @@
       </c>
       <c r="BG32" s="1"/>
       <c r="BH32" s="4"/>
-      <c r="BI32" s="13" t="str">
+      <c r="BI32" s="12" t="str">
         <f>IF(AZ35=BF35,"При сложении положительного и отрицательного слагаемых получено положительное число. Результат корректен, совпадает с суммой десятичных эквивалентов.","При сложении двух положительных слагаемых получено отрицательное число. Результат выполнения операции некорректен вследствие возникающего переполнения.")</f>
         <v>При сложении двух положительных слагаемых получено отрицательное число. Результат выполнения операции некорректен вследствие возникающего переполнения.</v>
       </c>
-      <c r="BJ32" s="13"/>
-      <c r="BK32" s="13"/>
-      <c r="BL32" s="13"/>
+      <c r="BJ32" s="12"/>
+      <c r="BK32" s="12"/>
+      <c r="BL32" s="12"/>
     </row>
-    <row r="33" spans="1:64" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:64" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -6049,79 +6441,79 @@
       </c>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AG33" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AH33" s="1">
-        <f t="shared" si="30"/>
-        <v>1</v>
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
       <c r="AI33" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AJ33" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>.</v>
       </c>
       <c r="AK33" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AL33" s="1">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="AM33" s="1">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="AN33" s="1">
-        <f t="shared" si="30"/>
-        <v>1</v>
+        <f t="shared" si="32"/>
+        <v>0</v>
       </c>
       <c r="AO33" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>.</v>
       </c>
       <c r="AP33" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AQ33" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>1</v>
       </c>
       <c r="AR33" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
       <c r="AS33" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
       <c r="AT33" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>.</v>
       </c>
       <c r="AU33" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AV33" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>1</v>
       </c>
       <c r="AW33" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AX33" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AY33" s="1"/>
@@ -6137,16 +6529,16 @@
       <c r="BE33" s="1"/>
       <c r="BF33" s="1">
         <f>C12</f>
-        <v>-24136</v>
+        <v>-31028</v>
       </c>
       <c r="BG33" s="1"/>
       <c r="BH33" s="4"/>
-      <c r="BI33" s="13"/>
-      <c r="BJ33" s="13"/>
-      <c r="BK33" s="13"/>
-      <c r="BL33" s="13"/>
+      <c r="BI33" s="12"/>
+      <c r="BJ33" s="12"/>
+      <c r="BK33" s="12"/>
+      <c r="BL33" s="12"/>
     </row>
-    <row r="34" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -6257,12 +6649,12 @@
       </c>
       <c r="BG34" s="1"/>
       <c r="BH34" s="4"/>
-      <c r="BI34" s="13"/>
-      <c r="BJ34" s="13"/>
-      <c r="BK34" s="13"/>
-      <c r="BL34" s="13"/>
+      <c r="BI34" s="12"/>
+      <c r="BJ34" s="12"/>
+      <c r="BK34" s="12"/>
+      <c r="BL34" s="12"/>
     </row>
-    <row r="35" spans="1:64" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:64" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -6295,76 +6687,76 @@
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1">
-        <f t="shared" ref="AF35:AH35" si="32">IF( (AF32+AF33+IF(OR(COUNTIF(AG32:AG33, 1)=2, AND(COUNTIF(AG32:AG33, 1)=1, AG35=0)), 1, 0))&gt;=2, AF32+AF33+IF(OR(COUNTIF(AG32:AG33, 1)=2, AND(COUNTIF(AG32:AG33, 1)=1, AG35=0)), 1, 0)-2, AF32+AF33+IF(OR(COUNTIF(AG32:AG33, 1)=2, AND(COUNTIF(AG32:AG33, 1)=1, AG35=0)), 1, 0))</f>
+        <f t="shared" ref="AF35:AH35" si="34">IF( (AF32+AF33+IF(OR(COUNTIF(AG32:AG33, 1)=2, AND(COUNTIF(AG32:AG33, 1)=1, AG35=0)), 1, 0))&gt;=2, AF32+AF33+IF(OR(COUNTIF(AG32:AG33, 1)=2, AND(COUNTIF(AG32:AG33, 1)=1, AG35=0)), 1, 0)-2, AF32+AF33+IF(OR(COUNTIF(AG32:AG33, 1)=2, AND(COUNTIF(AG32:AG33, 1)=1, AG35=0)), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="AG35" s="1">
-        <f t="shared" si="32"/>
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>0</v>
       </c>
       <c r="AH35" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
       <c r="AI35" s="1">
-        <f t="shared" ref="AI35" si="33">IF( (AI32+AI33+IF(OR(COUNTIF(AK32:AK33, 1)=2, AND(COUNTIF(AK32:AK33, 1)=1, AK35=0)), 1, 0))&gt;=2, AI32+AI33+IF(OR(COUNTIF(AK32:AK33, 1)=2, AND(COUNTIF(AK32:AK33, 1)=1, AK35=0)), 1, 0)-2, AI32+AI33+IF(OR(COUNTIF(AK32:AK33, 1)=2, AND(COUNTIF(AK32:AK33, 1)=1, AK35=0)), 1, 0))</f>
+        <f t="shared" ref="AI35" si="35">IF( (AI32+AI33+IF(OR(COUNTIF(AK32:AK33, 1)=2, AND(COUNTIF(AK32:AK33, 1)=1, AK35=0)), 1, 0))&gt;=2, AI32+AI33+IF(OR(COUNTIF(AK32:AK33, 1)=2, AND(COUNTIF(AK32:AK33, 1)=1, AK35=0)), 1, 0)-2, AI32+AI33+IF(OR(COUNTIF(AK32:AK33, 1)=2, AND(COUNTIF(AK32:AK33, 1)=1, AK35=0)), 1, 0))</f>
         <v>1</v>
       </c>
       <c r="AJ35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AK35" s="1">
-        <f t="shared" ref="AK35:AM35" si="34">IF( (AK32+AK33+IF(OR(COUNTIF(AL32:AL33, 1)=2, AND(COUNTIF(AL32:AL33, 1)=1, AL35=0)), 1, 0))&gt;=2, AK32+AK33+IF(OR(COUNTIF(AL32:AL33, 1)=2, AND(COUNTIF(AL32:AL33, 1)=1, AL35=0)), 1, 0)-2, AK32+AK33+IF(OR(COUNTIF(AL32:AL33, 1)=2, AND(COUNTIF(AL32:AL33, 1)=1, AL35=0)), 1, 0))</f>
-        <v>0</v>
+        <f t="shared" ref="AK35:AM35" si="36">IF( (AK32+AK33+IF(OR(COUNTIF(AL32:AL33, 1)=2, AND(COUNTIF(AL32:AL33, 1)=1, AL35=0)), 1, 0))&gt;=2, AK32+AK33+IF(OR(COUNTIF(AL32:AL33, 1)=2, AND(COUNTIF(AL32:AL33, 1)=1, AL35=0)), 1, 0)-2, AK32+AK33+IF(OR(COUNTIF(AL32:AL33, 1)=2, AND(COUNTIF(AL32:AL33, 1)=1, AL35=0)), 1, 0))</f>
+        <v>1</v>
       </c>
       <c r="AL35" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="AM35" s="1">
-        <f t="shared" si="34"/>
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>0</v>
       </c>
       <c r="AN35" s="1">
-        <f t="shared" ref="AN35" si="35">IF( (AN32+AN33+IF(OR(COUNTIF(AP32:AP33, 1)=2, AND(COUNTIF(AP32:AP33, 1)=1, AP35=0)), 1, 0))&gt;=2, AN32+AN33+IF(OR(COUNTIF(AP32:AP33, 1)=2, AND(COUNTIF(AP32:AP33, 1)=1, AP35=0)), 1, 0)-2, AN32+AN33+IF(OR(COUNTIF(AP32:AP33, 1)=2, AND(COUNTIF(AP32:AP33, 1)=1, AP35=0)), 1, 0))</f>
-        <v>1</v>
+        <f t="shared" ref="AN35" si="37">IF( (AN32+AN33+IF(OR(COUNTIF(AP32:AP33, 1)=2, AND(COUNTIF(AP32:AP33, 1)=1, AP35=0)), 1, 0))&gt;=2, AN32+AN33+IF(OR(COUNTIF(AP32:AP33, 1)=2, AND(COUNTIF(AP32:AP33, 1)=1, AP35=0)), 1, 0)-2, AN32+AN33+IF(OR(COUNTIF(AP32:AP33, 1)=2, AND(COUNTIF(AP32:AP33, 1)=1, AP35=0)), 1, 0))</f>
+        <v>0</v>
       </c>
       <c r="AO35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AP35" s="1">
-        <f t="shared" ref="AP35:AR35" si="36">IF( (AP32+AP33+IF(OR(COUNTIF(AQ32:AQ33, 1)=2, AND(COUNTIF(AQ32:AQ33, 1)=1, AQ35=0)), 1, 0))&gt;=2, AP32+AP33+IF(OR(COUNTIF(AQ32:AQ33, 1)=2, AND(COUNTIF(AQ32:AQ33, 1)=1, AQ35=0)), 1, 0)-2, AP32+AP33+IF(OR(COUNTIF(AQ32:AQ33, 1)=2, AND(COUNTIF(AQ32:AQ33, 1)=1, AQ35=0)), 1, 0))</f>
+        <f t="shared" ref="AP35:AR35" si="38">IF( (AP32+AP33+IF(OR(COUNTIF(AQ32:AQ33, 1)=2, AND(COUNTIF(AQ32:AQ33, 1)=1, AQ35=0)), 1, 0))&gt;=2, AP32+AP33+IF(OR(COUNTIF(AQ32:AQ33, 1)=2, AND(COUNTIF(AQ32:AQ33, 1)=1, AQ35=0)), 1, 0)-2, AP32+AP33+IF(OR(COUNTIF(AQ32:AQ33, 1)=2, AND(COUNTIF(AQ32:AQ33, 1)=1, AQ35=0)), 1, 0))</f>
         <v>1</v>
       </c>
       <c r="AQ35" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="AR35" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="AS35" s="1">
-        <f t="shared" ref="AS35" si="37">IF( (AS32+AS33+IF(OR(COUNTIF(AU32:AU33, 1)=2, AND(COUNTIF(AU32:AU33, 1)=1, AU35=0)), 1, 0))&gt;=2, AS32+AS33+IF(OR(COUNTIF(AU32:AU33, 1)=2, AND(COUNTIF(AU32:AU33, 1)=1, AU35=0)), 1, 0)-2, AS32+AS33+IF(OR(COUNTIF(AU32:AU33, 1)=2, AND(COUNTIF(AU32:AU33, 1)=1, AU35=0)), 1, 0))</f>
-        <v>0</v>
+        <f t="shared" ref="AS35" si="39">IF( (AS32+AS33+IF(OR(COUNTIF(AU32:AU33, 1)=2, AND(COUNTIF(AU32:AU33, 1)=1, AU35=0)), 1, 0))&gt;=2, AS32+AS33+IF(OR(COUNTIF(AU32:AU33, 1)=2, AND(COUNTIF(AU32:AU33, 1)=1, AU35=0)), 1, 0)-2, AS32+AS33+IF(OR(COUNTIF(AU32:AU33, 1)=2, AND(COUNTIF(AU32:AU33, 1)=1, AU35=0)), 1, 0))</f>
+        <v>1</v>
       </c>
       <c r="AT35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AU35" s="1">
-        <f t="shared" ref="AU35:AW35" si="38">IF( (AU32+AU33+IF(OR(COUNTIF(AV32:AV33, 1)=2, AND(COUNTIF(AV32:AV33, 1)=1, AV35=0)), 1, 0))&gt;=2, AU32+AU33+IF(OR(COUNTIF(AV32:AV33, 1)=2, AND(COUNTIF(AV32:AV33, 1)=1, AV35=0)), 1, 0)-2, AU32+AU33+IF(OR(COUNTIF(AV32:AV33, 1)=2, AND(COUNTIF(AV32:AV33, 1)=1, AV35=0)), 1, 0))</f>
+        <f t="shared" ref="AU35:AW35" si="40">IF( (AU32+AU33+IF(OR(COUNTIF(AV32:AV33, 1)=2, AND(COUNTIF(AV32:AV33, 1)=1, AV35=0)), 1, 0))&gt;=2, AU32+AU33+IF(OR(COUNTIF(AV32:AV33, 1)=2, AND(COUNTIF(AV32:AV33, 1)=1, AV35=0)), 1, 0)-2, AU32+AU33+IF(OR(COUNTIF(AV32:AV33, 1)=2, AND(COUNTIF(AV32:AV33, 1)=1, AV35=0)), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="AV35" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>1</v>
       </c>
       <c r="AW35" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AX35" s="1">
-        <f t="shared" ref="AX35" si="39">IF((AX32+AX33)=2,0,AX32+AX33)</f>
+        <f t="shared" ref="AX35" si="41">IF((AX32+AX33)=2,0,AX32+AX33)</f>
         <v>0</v>
       </c>
       <c r="AY35" s="7" t="s">
@@ -6372,7 +6764,7 @@
       </c>
       <c r="AZ35" s="9">
         <f>IF(AF35=0,BIN2DEC(CONCATENATE(AP35,AQ35,AR35,AS35,AU35,AV35,AW35,AX35))+BIN2DEC(CONCATENATE(AF35,AG35,AH35,AI35,AK35,AL35,AM35,AN35))*2^8,-(BIN2DEC(CONCATENATE((AP35-1)*(-1),(AQ35-1)*(-1),(AR35-1)*(-1),(AS35-1)*(-1),(AU35-1)*(-1),(AV35-1)*(-1),(AW35-1)*(-1),(AX35-1)*(-1))))-BIN2DEC(CONCATENATE((AF35-1)*(-1),(AG35-1)*(-1),(AH35-1)*(-1),(AI35-1)*(-1),(AK35-1)*(-1),(AL35-1)*(-1),(AM35-1)*(-1),(AN35-1)*(-1)))*2^8-1)</f>
-        <v>22496</v>
+        <v>15604</v>
       </c>
       <c r="BA35" s="7" t="s">
         <v>25</v>
@@ -6382,19 +6774,19 @@
       <c r="BD35" s="1"/>
       <c r="BE35" s="1"/>
       <c r="BF35" s="1">
-        <f t="shared" ref="BF35" si="40">BF32+BF33</f>
-        <v>-43040</v>
+        <f t="shared" ref="BF35" si="42">BF32+BF33</f>
+        <v>-49932</v>
       </c>
       <c r="BG35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="BH35" s="4"/>
-      <c r="BI35" s="13"/>
-      <c r="BJ35" s="13"/>
-      <c r="BK35" s="13"/>
-      <c r="BL35" s="13"/>
+      <c r="BI35" s="12"/>
+      <c r="BJ35" s="12"/>
+      <c r="BK35" s="12"/>
+      <c r="BL35" s="12"/>
     </row>
-    <row r="36" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -6455,12 +6847,12 @@
       <c r="BF36" s="1"/>
       <c r="BG36" s="1"/>
       <c r="BH36" s="4"/>
-      <c r="BI36" s="13"/>
-      <c r="BJ36" s="13"/>
-      <c r="BK36" s="13"/>
-      <c r="BL36" s="13"/>
+      <c r="BI36" s="12"/>
+      <c r="BJ36" s="12"/>
+      <c r="BK36" s="12"/>
+      <c r="BL36" s="12"/>
     </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -6493,30 +6885,30 @@
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
-      <c r="AG37" s="10" t="s">
+      <c r="AG37" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AH37" s="10"/>
-      <c r="AI37" s="10"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
       <c r="AJ37" s="2">
         <f>IF(OR(COUNTIF(AF32:AF33,1)=2,AND(COUNTIF(AF32:AF33,1)=1,IF(OR(COUNTIF(AG32:AG33,1)=2,AND(COUNTIF(AG32:AG33,1)=1,AG35=0)),1,0))),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AK37" s="10" t="s">
+      <c r="AK37" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AL37" s="10"/>
-      <c r="AM37" s="10"/>
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="11"/>
       <c r="AN37" s="2">
         <f>IF(MOD(COUNTIF(AP35:AX35,1),2)=0,1,0)</f>
         <v>0</v>
       </c>
       <c r="AO37" s="2"/>
-      <c r="AP37" s="10" t="s">
+      <c r="AP37" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AQ37" s="10"/>
-      <c r="AR37" s="10"/>
+      <c r="AQ37" s="11"/>
+      <c r="AR37" s="11"/>
       <c r="AS37" s="2">
         <f>IF(OR(COUNTIF(AU32:AU33, 1)=2, AND(COUNTIF(AU32:AU33, 1)=1, AU35=0)),1,0)</f>
         <v>1</v>
@@ -6556,7 +6948,7 @@
       <c r="BK37" s="4"/>
       <c r="BL37" s="4"/>
     </row>
-    <row r="38" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -6622,7 +7014,7 @@
       <c r="BK38" s="4"/>
       <c r="BL38" s="4"/>
     </row>
-    <row r="39" spans="1:64" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:64" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -6657,79 +7049,79 @@
       </c>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1">
-        <f t="shared" ref="AF39:AX39" si="41">G4</f>
+        <f t="shared" ref="AF39:AX39" si="43">G4</f>
         <v>0</v>
       </c>
       <c r="AG39" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AH39" s="1">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1</v>
       </c>
       <c r="AI39" s="1">
-        <f t="shared" si="41"/>
-        <v>1</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="AJ39" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>.</v>
       </c>
       <c r="AK39" s="1">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1</v>
       </c>
       <c r="AL39" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="AM39" s="1">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1</v>
       </c>
       <c r="AN39" s="1">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1</v>
       </c>
       <c r="AO39" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>.</v>
       </c>
       <c r="AP39" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AQ39" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="AR39" s="1">
-        <f t="shared" si="41"/>
-        <v>1</v>
+        <f t="shared" si="43"/>
+        <v>0</v>
       </c>
       <c r="AS39" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="AT39" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>.</v>
       </c>
       <c r="AU39" s="1">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1</v>
       </c>
       <c r="AV39" s="1">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>1</v>
       </c>
       <c r="AW39" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AX39" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AY39" s="1"/>
@@ -6743,19 +7135,19 @@
       <c r="BE39" s="1"/>
       <c r="BF39" s="1">
         <f>C4</f>
-        <v>5232</v>
+        <v>12124</v>
       </c>
       <c r="BG39" s="1"/>
       <c r="BH39" s="4"/>
-      <c r="BI39" s="13" t="str">
+      <c r="BI39" s="12" t="str">
         <f>IF(AZ42=BF42,"При сложении положительного и отрицательного слагаемых получено положительное число. Результат корректен, совпадает с суммой десятичных эквивалентов.","При сложении двух положительных слагаемых получено отрицательное число. Результат выполнения операции некорректен вследствие возникающего переполнения.")</f>
         <v>При сложении положительного и отрицательного слагаемых получено положительное число. Результат корректен, совпадает с суммой десятичных эквивалентов.</v>
       </c>
-      <c r="BJ39" s="13"/>
-      <c r="BK39" s="13"/>
-      <c r="BL39" s="13"/>
+      <c r="BJ39" s="12"/>
+      <c r="BK39" s="12"/>
+      <c r="BL39" s="12"/>
     </row>
-    <row r="40" spans="1:64" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:64" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -6792,79 +7184,79 @@
       </c>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1">
-        <f t="shared" ref="AF40:AX40" si="42">G11</f>
+        <f t="shared" ref="AF40:AX40" si="44">G11</f>
         <v>1</v>
       </c>
       <c r="AG40" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AH40" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="AI40" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="AJ40" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>.</v>
       </c>
       <c r="AK40" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AL40" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="AM40" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="AN40" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AO40" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>.</v>
       </c>
       <c r="AP40" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AQ40" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AR40" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="AS40" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AT40" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>.</v>
       </c>
       <c r="AU40" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="AV40" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AW40" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AX40" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AY40" s="1"/>
@@ -6884,12 +7276,12 @@
       </c>
       <c r="BG40" s="1"/>
       <c r="BH40" s="4"/>
-      <c r="BI40" s="13"/>
-      <c r="BJ40" s="13"/>
-      <c r="BK40" s="13"/>
-      <c r="BL40" s="13"/>
+      <c r="BI40" s="12"/>
+      <c r="BJ40" s="12"/>
+      <c r="BK40" s="12"/>
+      <c r="BL40" s="12"/>
     </row>
-    <row r="41" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -7000,12 +7392,12 @@
       </c>
       <c r="BG41" s="1"/>
       <c r="BH41" s="4"/>
-      <c r="BI41" s="13"/>
-      <c r="BJ41" s="13"/>
-      <c r="BK41" s="13"/>
-      <c r="BL41" s="13"/>
+      <c r="BI41" s="12"/>
+      <c r="BJ41" s="12"/>
+      <c r="BK41" s="12"/>
+      <c r="BL41" s="12"/>
     </row>
-    <row r="42" spans="1:64" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:64" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -7038,76 +7430,76 @@
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
       <c r="AF42" s="1">
-        <f t="shared" ref="AF42:AH42" si="43">IF( (AF39+AF40+IF(OR(COUNTIF(AG39:AG40, 1)=2, AND(COUNTIF(AG39:AG40, 1)=1, AG42=0)), 1, 0))&gt;=2, AF39+AF40+IF(OR(COUNTIF(AG39:AG40, 1)=2, AND(COUNTIF(AG39:AG40, 1)=1, AG42=0)), 1, 0)-2, AF39+AF40+IF(OR(COUNTIF(AG39:AG40, 1)=2, AND(COUNTIF(AG39:AG40, 1)=1, AG42=0)), 1, 0))</f>
+        <f t="shared" ref="AF42:AH42" si="45">IF( (AF39+AF40+IF(OR(COUNTIF(AG39:AG40, 1)=2, AND(COUNTIF(AG39:AG40, 1)=1, AG42=0)), 1, 0))&gt;=2, AF39+AF40+IF(OR(COUNTIF(AG39:AG40, 1)=2, AND(COUNTIF(AG39:AG40, 1)=1, AG42=0)), 1, 0)-2, AF39+AF40+IF(OR(COUNTIF(AG39:AG40, 1)=2, AND(COUNTIF(AG39:AG40, 1)=1, AG42=0)), 1, 0))</f>
         <v>1</v>
       </c>
       <c r="AG42" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="AH42" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>1</v>
       </c>
       <c r="AI42" s="1">
-        <f t="shared" ref="AI42" si="44">IF( (AI39+AI40+IF(OR(COUNTIF(AK39:AK40, 1)=2, AND(COUNTIF(AK39:AK40, 1)=1, AK42=0)), 1, 0))&gt;=2, AI39+AI40+IF(OR(COUNTIF(AK39:AK40, 1)=2, AND(COUNTIF(AK39:AK40, 1)=1, AK42=0)), 1, 0)-2, AI39+AI40+IF(OR(COUNTIF(AK39:AK40, 1)=2, AND(COUNTIF(AK39:AK40, 1)=1, AK42=0)), 1, 0))</f>
+        <f t="shared" ref="AI42" si="46">IF( (AI39+AI40+IF(OR(COUNTIF(AK39:AK40, 1)=2, AND(COUNTIF(AK39:AK40, 1)=1, AK42=0)), 1, 0))&gt;=2, AI39+AI40+IF(OR(COUNTIF(AK39:AK40, 1)=2, AND(COUNTIF(AK39:AK40, 1)=1, AK42=0)), 1, 0)-2, AI39+AI40+IF(OR(COUNTIF(AK39:AK40, 1)=2, AND(COUNTIF(AK39:AK40, 1)=1, AK42=0)), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="AJ42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AK42" s="1">
-        <f t="shared" ref="AK42:AM42" si="45">IF( (AK39+AK40+IF(OR(COUNTIF(AL39:AL40, 1)=2, AND(COUNTIF(AL39:AL40, 1)=1, AL42=0)), 1, 0))&gt;=2, AK39+AK40+IF(OR(COUNTIF(AL39:AL40, 1)=2, AND(COUNTIF(AL39:AL40, 1)=1, AL42=0)), 1, 0)-2, AK39+AK40+IF(OR(COUNTIF(AL39:AL40, 1)=2, AND(COUNTIF(AL39:AL40, 1)=1, AL42=0)), 1, 0))</f>
-        <v>1</v>
+        <f t="shared" ref="AK42:AM42" si="47">IF( (AK39+AK40+IF(OR(COUNTIF(AL39:AL40, 1)=2, AND(COUNTIF(AL39:AL40, 1)=1, AL42=0)), 1, 0))&gt;=2, AK39+AK40+IF(OR(COUNTIF(AL39:AL40, 1)=2, AND(COUNTIF(AL39:AL40, 1)=1, AL42=0)), 1, 0)-2, AK39+AK40+IF(OR(COUNTIF(AL39:AL40, 1)=2, AND(COUNTIF(AL39:AL40, 1)=1, AL42=0)), 1, 0))</f>
+        <v>0</v>
       </c>
       <c r="AL42" s="1">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <f t="shared" si="47"/>
+        <v>1</v>
       </c>
       <c r="AM42" s="1">
-        <f t="shared" si="45"/>
-        <v>1</v>
+        <f t="shared" si="47"/>
+        <v>0</v>
       </c>
       <c r="AN42" s="1">
-        <f t="shared" ref="AN42" si="46">IF( (AN39+AN40+IF(OR(COUNTIF(AP39:AP40, 1)=2, AND(COUNTIF(AP39:AP40, 1)=1, AP42=0)), 1, 0))&gt;=2, AN39+AN40+IF(OR(COUNTIF(AP39:AP40, 1)=2, AND(COUNTIF(AP39:AP40, 1)=1, AP42=0)), 1, 0)-2, AN39+AN40+IF(OR(COUNTIF(AP39:AP40, 1)=2, AND(COUNTIF(AP39:AP40, 1)=1, AP42=0)), 1, 0))</f>
-        <v>0</v>
+        <f t="shared" ref="AN42" si="48">IF( (AN39+AN40+IF(OR(COUNTIF(AP39:AP40, 1)=2, AND(COUNTIF(AP39:AP40, 1)=1, AP42=0)), 1, 0))&gt;=2, AN39+AN40+IF(OR(COUNTIF(AP39:AP40, 1)=2, AND(COUNTIF(AP39:AP40, 1)=1, AP42=0)), 1, 0)-2, AN39+AN40+IF(OR(COUNTIF(AP39:AP40, 1)=2, AND(COUNTIF(AP39:AP40, 1)=1, AP42=0)), 1, 0))</f>
+        <v>1</v>
       </c>
       <c r="AO42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AP42" s="1">
-        <f t="shared" ref="AP42:AR42" si="47">IF( (AP39+AP40+IF(OR(COUNTIF(AQ39:AQ40, 1)=2, AND(COUNTIF(AQ39:AQ40, 1)=1, AQ42=0)), 1, 0))&gt;=2, AP39+AP40+IF(OR(COUNTIF(AQ39:AQ40, 1)=2, AND(COUNTIF(AQ39:AQ40, 1)=1, AQ42=0)), 1, 0)-2, AP39+AP40+IF(OR(COUNTIF(AQ39:AQ40, 1)=2, AND(COUNTIF(AQ39:AQ40, 1)=1, AQ42=0)), 1, 0))</f>
+        <f t="shared" ref="AP42:AR42" si="49">IF( (AP39+AP40+IF(OR(COUNTIF(AQ39:AQ40, 1)=2, AND(COUNTIF(AQ39:AQ40, 1)=1, AQ42=0)), 1, 0))&gt;=2, AP39+AP40+IF(OR(COUNTIF(AQ39:AQ40, 1)=2, AND(COUNTIF(AQ39:AQ40, 1)=1, AQ42=0)), 1, 0)-2, AP39+AP40+IF(OR(COUNTIF(AQ39:AQ40, 1)=2, AND(COUNTIF(AQ39:AQ40, 1)=1, AQ42=0)), 1, 0))</f>
         <v>1</v>
       </c>
       <c r="AQ42" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AR42" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AS42" s="1">
-        <f t="shared" ref="AS42" si="48">IF( (AS39+AS40+IF(OR(COUNTIF(AU39:AU40, 1)=2, AND(COUNTIF(AU39:AU40, 1)=1, AU42=0)), 1, 0))&gt;=2, AS39+AS40+IF(OR(COUNTIF(AU39:AU40, 1)=2, AND(COUNTIF(AU39:AU40, 1)=1, AU42=0)), 1, 0)-2, AS39+AS40+IF(OR(COUNTIF(AU39:AU40, 1)=2, AND(COUNTIF(AU39:AU40, 1)=1, AU42=0)), 1, 0))</f>
-        <v>1</v>
+        <f t="shared" ref="AS42" si="50">IF( (AS39+AS40+IF(OR(COUNTIF(AU39:AU40, 1)=2, AND(COUNTIF(AU39:AU40, 1)=1, AU42=0)), 1, 0))&gt;=2, AS39+AS40+IF(OR(COUNTIF(AU39:AU40, 1)=2, AND(COUNTIF(AU39:AU40, 1)=1, AU42=0)), 1, 0)-2, AS39+AS40+IF(OR(COUNTIF(AU39:AU40, 1)=2, AND(COUNTIF(AU39:AU40, 1)=1, AU42=0)), 1, 0))</f>
+        <v>0</v>
       </c>
       <c r="AT42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AU42" s="1">
-        <f t="shared" ref="AU42:AW42" si="49">IF( (AU39+AU40+IF(OR(COUNTIF(AV39:AV40, 1)=2, AND(COUNTIF(AV39:AV40, 1)=1, AV42=0)), 1, 0))&gt;=2, AU39+AU40+IF(OR(COUNTIF(AV39:AV40, 1)=2, AND(COUNTIF(AV39:AV40, 1)=1, AV42=0)), 1, 0)-2, AU39+AU40+IF(OR(COUNTIF(AV39:AV40, 1)=2, AND(COUNTIF(AV39:AV40, 1)=1, AV42=0)), 1, 0))</f>
-        <v>1</v>
+        <f t="shared" ref="AU42:AW42" si="51">IF( (AU39+AU40+IF(OR(COUNTIF(AV39:AV40, 1)=2, AND(COUNTIF(AV39:AV40, 1)=1, AV42=0)), 1, 0))&gt;=2, AU39+AU40+IF(OR(COUNTIF(AV39:AV40, 1)=2, AND(COUNTIF(AV39:AV40, 1)=1, AV42=0)), 1, 0)-2, AU39+AU40+IF(OR(COUNTIF(AV39:AV40, 1)=2, AND(COUNTIF(AV39:AV40, 1)=1, AV42=0)), 1, 0))</f>
+        <v>0</v>
       </c>
       <c r="AV42" s="1">
-        <f t="shared" si="49"/>
-        <v>0</v>
+        <f t="shared" si="51"/>
+        <v>1</v>
       </c>
       <c r="AW42" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AX42" s="1">
-        <f t="shared" ref="AX42" si="50">IF((AX39+AX40)=2,0,AX39+AX40)</f>
+        <f t="shared" ref="AX42" si="52">IF((AX39+AX40)=2,0,AX39+AX40)</f>
         <v>0</v>
       </c>
       <c r="AY42" s="7" t="s">
@@ -7115,7 +7507,7 @@
       </c>
       <c r="AZ42" s="9">
         <f>IF(AF42=0,BIN2DEC(CONCATENATE(AP42,AQ42,AR42,AS42,AU42,AV42,AW42,AX42))+BIN2DEC(CONCATENATE(AF42,AG42,AH42,AI42,AK42,AL42,AM42,AN42))*2^8,-(BIN2DEC(CONCATENATE((AP42-1)*(-1),(AQ42-1)*(-1),(AR42-1)*(-1),(AS42-1)*(-1),(AU42-1)*(-1),(AV42-1)*(-1),(AW42-1)*(-1),(AX42-1)*(-1))))-BIN2DEC(CONCATENATE((AF42-1)*(-1),(AG42-1)*(-1),(AH42-1)*(-1),(AI42-1)*(-1),(AK42-1)*(-1),(AL42-1)*(-1),(AM42-1)*(-1),(AN42-1)*(-1)))*2^8-1)</f>
-        <v>-13672</v>
+        <v>-6780</v>
       </c>
       <c r="BA42" s="7" t="s">
         <v>25</v>
@@ -7125,19 +7517,19 @@
       <c r="BD42" s="1"/>
       <c r="BE42" s="1"/>
       <c r="BF42" s="1">
-        <f t="shared" ref="BF42" si="51">BF39+BF40</f>
-        <v>-13672</v>
+        <f t="shared" ref="BF42" si="53">BF39+BF40</f>
+        <v>-6780</v>
       </c>
       <c r="BG42" s="7" t="s">
         <v>25</v>
       </c>
       <c r="BH42" s="4"/>
-      <c r="BI42" s="13"/>
-      <c r="BJ42" s="13"/>
-      <c r="BK42" s="13"/>
-      <c r="BL42" s="13"/>
+      <c r="BI42" s="12"/>
+      <c r="BJ42" s="12"/>
+      <c r="BK42" s="12"/>
+      <c r="BL42" s="12"/>
     </row>
-    <row r="43" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -7198,12 +7590,12 @@
       <c r="BF43" s="1"/>
       <c r="BG43" s="1"/>
       <c r="BH43" s="4"/>
-      <c r="BI43" s="13"/>
-      <c r="BJ43" s="13"/>
-      <c r="BK43" s="13"/>
-      <c r="BL43" s="13"/>
+      <c r="BI43" s="12"/>
+      <c r="BJ43" s="12"/>
+      <c r="BK43" s="12"/>
+      <c r="BL43" s="12"/>
     </row>
-    <row r="44" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -7236,33 +7628,33 @@
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
       <c r="AF44" s="1"/>
-      <c r="AG44" s="10" t="s">
+      <c r="AG44" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AH44" s="10"/>
-      <c r="AI44" s="10"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
       <c r="AJ44" s="2">
         <f>IF(OR(COUNTIF(AF39:AF40,1)=2,AND(COUNTIF(AF39:AF40,1)=1,IF(OR(COUNTIF(AG39:AG40,1)=2,AND(COUNTIF(AG39:AG40,1)=1,AG42=0)),1,0))),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AK44" s="10" t="s">
+      <c r="AK44" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AL44" s="10"/>
-      <c r="AM44" s="10"/>
+      <c r="AL44" s="11"/>
+      <c r="AM44" s="11"/>
       <c r="AN44" s="2">
         <f>IF(MOD(COUNTIF(AP42:AX42,1),2)=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO44" s="2"/>
-      <c r="AP44" s="10" t="s">
+      <c r="AP44" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AQ44" s="10"/>
-      <c r="AR44" s="10"/>
+      <c r="AQ44" s="11"/>
+      <c r="AR44" s="11"/>
       <c r="AS44" s="2">
         <f>IF(OR(COUNTIF(AU39:AU40, 1)=2, AND(COUNTIF(AU39:AU40, 1)=1, AU42=0)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT44" s="2"/>
       <c r="AU44" s="2"/>
@@ -7299,7 +7691,7 @@
       <c r="BK44" s="4"/>
       <c r="BL44" s="4"/>
     </row>
-    <row r="45" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -7365,7 +7757,7 @@
       <c r="BK45" s="4"/>
       <c r="BL45" s="4"/>
     </row>
-    <row r="46" spans="1:64" ht="18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:64" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -7400,79 +7792,79 @@
       </c>
       <c r="AE46" s="1"/>
       <c r="AF46" s="1">
-        <f t="shared" ref="AF46:AX46" si="52">G14</f>
+        <f t="shared" ref="AF46:AX46" si="54">G14</f>
         <v>1</v>
       </c>
       <c r="AG46" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="AH46" s="1">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" si="54"/>
+        <v>1</v>
       </c>
       <c r="AI46" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AJ46" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>.</v>
       </c>
       <c r="AK46" s="1">
-        <f t="shared" si="52"/>
-        <v>1</v>
+        <f t="shared" si="54"/>
+        <v>0</v>
       </c>
       <c r="AL46" s="1">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" si="54"/>
+        <v>1</v>
       </c>
       <c r="AM46" s="1">
-        <f t="shared" si="52"/>
-        <v>1</v>
+        <f t="shared" si="54"/>
+        <v>0</v>
       </c>
       <c r="AN46" s="1">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" si="54"/>
+        <v>1</v>
       </c>
       <c r="AO46" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>.</v>
       </c>
       <c r="AP46" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="AQ46" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AR46" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AS46" s="1">
-        <f t="shared" si="52"/>
-        <v>1</v>
+        <f t="shared" si="54"/>
+        <v>0</v>
       </c>
       <c r="AT46" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>.</v>
       </c>
       <c r="AU46" s="1">
-        <f t="shared" si="52"/>
-        <v>1</v>
+        <f t="shared" si="54"/>
+        <v>0</v>
       </c>
       <c r="AV46" s="1">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" si="54"/>
+        <v>1</v>
       </c>
       <c r="AW46" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AX46" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AY46" s="1"/>
@@ -7486,19 +7878,19 @@
       <c r="BE46" s="1"/>
       <c r="BF46" s="1">
         <f>C14</f>
-        <v>-13672</v>
+        <v>-6780</v>
       </c>
       <c r="BG46" s="1"/>
       <c r="BH46" s="4"/>
-      <c r="BI46" s="13" t="str">
+      <c r="BI46" s="12" t="str">
         <f>IF(AZ49=BF49,"При сложении положительного и отрицательного слагаемых получено положительное число. Результат корректен, совпадает с суммой десятичных эквивалентов.","При сложении двух положительных слагаемых получено отрицательное число. Результат выполнения операции некорректен вследствие возникающего переполнения.")</f>
         <v>При сложении положительного и отрицательного слагаемых получено положительное число. Результат корректен, совпадает с суммой десятичных эквивалентов.</v>
       </c>
-      <c r="BJ46" s="13"/>
-      <c r="BK46" s="13"/>
-      <c r="BL46" s="13"/>
+      <c r="BJ46" s="12"/>
+      <c r="BK46" s="12"/>
+      <c r="BL46" s="12"/>
     </row>
-    <row r="47" spans="1:64" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:64" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -7535,79 +7927,79 @@
       </c>
       <c r="AE47" s="1"/>
       <c r="AF47" s="1">
-        <f t="shared" ref="AF47:AX47" si="53">G6</f>
+        <f t="shared" ref="AF47:AX47" si="55">G6</f>
         <v>0</v>
       </c>
       <c r="AG47" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="AH47" s="1">
-        <f t="shared" si="53"/>
-        <v>0</v>
+        <f t="shared" si="55"/>
+        <v>1</v>
       </c>
       <c r="AI47" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="AJ47" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>.</v>
       </c>
       <c r="AK47" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="AL47" s="1">
-        <f t="shared" si="53"/>
-        <v>1</v>
+        <f t="shared" si="55"/>
+        <v>0</v>
       </c>
       <c r="AM47" s="1">
-        <f t="shared" si="53"/>
-        <v>1</v>
+        <f t="shared" si="55"/>
+        <v>0</v>
       </c>
       <c r="AN47" s="1">
-        <f t="shared" si="53"/>
-        <v>0</v>
+        <f t="shared" si="55"/>
+        <v>1</v>
       </c>
       <c r="AO47" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>.</v>
       </c>
       <c r="AP47" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AQ47" s="1">
-        <f t="shared" si="53"/>
-        <v>1</v>
+        <f t="shared" si="55"/>
+        <v>0</v>
       </c>
       <c r="AR47" s="1">
-        <f t="shared" si="53"/>
-        <v>0</v>
+        <f t="shared" si="55"/>
+        <v>1</v>
       </c>
       <c r="AS47" s="1">
-        <f t="shared" si="53"/>
-        <v>0</v>
+        <f t="shared" si="55"/>
+        <v>1</v>
       </c>
       <c r="AT47" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>.</v>
       </c>
       <c r="AU47" s="1">
-        <f t="shared" si="53"/>
-        <v>1</v>
+        <f t="shared" si="55"/>
+        <v>0</v>
       </c>
       <c r="AV47" s="1">
-        <f t="shared" si="53"/>
-        <v>0</v>
+        <f t="shared" si="55"/>
+        <v>1</v>
       </c>
       <c r="AW47" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AX47" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AY47" s="1"/>
@@ -7623,16 +8015,16 @@
       <c r="BE47" s="1"/>
       <c r="BF47" s="1">
         <f>C6</f>
-        <v>24136</v>
+        <v>31028</v>
       </c>
       <c r="BG47" s="1"/>
       <c r="BH47" s="4"/>
-      <c r="BI47" s="13"/>
-      <c r="BJ47" s="13"/>
-      <c r="BK47" s="13"/>
-      <c r="BL47" s="13"/>
+      <c r="BI47" s="12"/>
+      <c r="BJ47" s="12"/>
+      <c r="BK47" s="12"/>
+      <c r="BL47" s="12"/>
     </row>
-    <row r="48" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -7743,12 +8135,12 @@
       </c>
       <c r="BG48" s="1"/>
       <c r="BH48" s="4"/>
-      <c r="BI48" s="13"/>
-      <c r="BJ48" s="13"/>
-      <c r="BK48" s="13"/>
-      <c r="BL48" s="13"/>
+      <c r="BI48" s="12"/>
+      <c r="BJ48" s="12"/>
+      <c r="BK48" s="12"/>
+      <c r="BL48" s="12"/>
     </row>
-    <row r="49" spans="1:64" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:64" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -7781,76 +8173,76 @@
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="1">
-        <f t="shared" ref="AF49:AH49" si="54">IF( (AF46+AF47+IF(OR(COUNTIF(AG46:AG47, 1)=2, AND(COUNTIF(AG46:AG47, 1)=1, AG49=0)), 1, 0))&gt;=2, AF46+AF47+IF(OR(COUNTIF(AG46:AG47, 1)=2, AND(COUNTIF(AG46:AG47, 1)=1, AG49=0)), 1, 0)-2, AF46+AF47+IF(OR(COUNTIF(AG46:AG47, 1)=2, AND(COUNTIF(AG46:AG47, 1)=1, AG49=0)), 1, 0))</f>
+        <f t="shared" ref="AF49:AH49" si="56">IF( (AF46+AF47+IF(OR(COUNTIF(AG46:AG47, 1)=2, AND(COUNTIF(AG46:AG47, 1)=1, AG49=0)), 1, 0))&gt;=2, AF46+AF47+IF(OR(COUNTIF(AG46:AG47, 1)=2, AND(COUNTIF(AG46:AG47, 1)=1, AG49=0)), 1, 0)-2, AF46+AF47+IF(OR(COUNTIF(AG46:AG47, 1)=2, AND(COUNTIF(AG46:AG47, 1)=1, AG49=0)), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="AG49" s="1">
-        <f t="shared" si="54"/>
-        <v>0</v>
+        <f t="shared" si="56"/>
+        <v>1</v>
       </c>
       <c r="AH49" s="1">
-        <f t="shared" si="54"/>
-        <v>1</v>
+        <f t="shared" si="56"/>
+        <v>0</v>
       </c>
       <c r="AI49" s="1">
-        <f t="shared" ref="AI49" si="55">IF( (AI46+AI47+IF(OR(COUNTIF(AK46:AK47, 1)=2, AND(COUNTIF(AK46:AK47, 1)=1, AK49=0)), 1, 0))&gt;=2, AI46+AI47+IF(OR(COUNTIF(AK46:AK47, 1)=2, AND(COUNTIF(AK46:AK47, 1)=1, AK49=0)), 1, 0)-2, AI46+AI47+IF(OR(COUNTIF(AK46:AK47, 1)=2, AND(COUNTIF(AK46:AK47, 1)=1, AK49=0)), 1, 0))</f>
-        <v>0</v>
+        <f t="shared" ref="AI49" si="57">IF( (AI46+AI47+IF(OR(COUNTIF(AK46:AK47, 1)=2, AND(COUNTIF(AK46:AK47, 1)=1, AK49=0)), 1, 0))&gt;=2, AI46+AI47+IF(OR(COUNTIF(AK46:AK47, 1)=2, AND(COUNTIF(AK46:AK47, 1)=1, AK49=0)), 1, 0)-2, AI46+AI47+IF(OR(COUNTIF(AK46:AK47, 1)=2, AND(COUNTIF(AK46:AK47, 1)=1, AK49=0)), 1, 0))</f>
+        <v>1</v>
       </c>
       <c r="AJ49" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AK49" s="1">
-        <f t="shared" ref="AK49:AM49" si="56">IF( (AK46+AK47+IF(OR(COUNTIF(AL46:AL47, 1)=2, AND(COUNTIF(AL46:AL47, 1)=1, AL49=0)), 1, 0))&gt;=2, AK46+AK47+IF(OR(COUNTIF(AL46:AL47, 1)=2, AND(COUNTIF(AL46:AL47, 1)=1, AL49=0)), 1, 0)-2, AK46+AK47+IF(OR(COUNTIF(AL46:AL47, 1)=2, AND(COUNTIF(AL46:AL47, 1)=1, AL49=0)), 1, 0))</f>
+        <f t="shared" ref="AK49:AM49" si="58">IF( (AK46+AK47+IF(OR(COUNTIF(AL46:AL47, 1)=2, AND(COUNTIF(AL46:AL47, 1)=1, AL49=0)), 1, 0))&gt;=2, AK46+AK47+IF(OR(COUNTIF(AL46:AL47, 1)=2, AND(COUNTIF(AL46:AL47, 1)=1, AL49=0)), 1, 0)-2, AK46+AK47+IF(OR(COUNTIF(AL46:AL47, 1)=2, AND(COUNTIF(AL46:AL47, 1)=1, AL49=0)), 1, 0))</f>
         <v>1</v>
       </c>
       <c r="AL49" s="1">
-        <f t="shared" si="56"/>
-        <v>0</v>
+        <f t="shared" si="58"/>
+        <v>1</v>
       </c>
       <c r="AM49" s="1">
-        <f t="shared" si="56"/>
-        <v>0</v>
+        <f t="shared" si="58"/>
+        <v>1</v>
       </c>
       <c r="AN49" s="1">
-        <f t="shared" ref="AN49" si="57">IF( (AN46+AN47+IF(OR(COUNTIF(AP46:AP47, 1)=2, AND(COUNTIF(AP46:AP47, 1)=1, AP49=0)), 1, 0))&gt;=2, AN46+AN47+IF(OR(COUNTIF(AP46:AP47, 1)=2, AND(COUNTIF(AP46:AP47, 1)=1, AP49=0)), 1, 0)-2, AN46+AN47+IF(OR(COUNTIF(AP46:AP47, 1)=2, AND(COUNTIF(AP46:AP47, 1)=1, AP49=0)), 1, 0))</f>
+        <f t="shared" ref="AN49" si="59">IF( (AN46+AN47+IF(OR(COUNTIF(AP46:AP47, 1)=2, AND(COUNTIF(AP46:AP47, 1)=1, AP49=0)), 1, 0))&gt;=2, AN46+AN47+IF(OR(COUNTIF(AP46:AP47, 1)=2, AND(COUNTIF(AP46:AP47, 1)=1, AP49=0)), 1, 0)-2, AN46+AN47+IF(OR(COUNTIF(AP46:AP47, 1)=2, AND(COUNTIF(AP46:AP47, 1)=1, AP49=0)), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="AO49" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AP49" s="1">
-        <f t="shared" ref="AP49:AR49" si="58">IF( (AP46+AP47+IF(OR(COUNTIF(AQ46:AQ47, 1)=2, AND(COUNTIF(AQ46:AQ47, 1)=1, AQ49=0)), 1, 0))&gt;=2, AP46+AP47+IF(OR(COUNTIF(AQ46:AQ47, 1)=2, AND(COUNTIF(AQ46:AQ47, 1)=1, AQ49=0)), 1, 0)-2, AP46+AP47+IF(OR(COUNTIF(AQ46:AQ47, 1)=2, AND(COUNTIF(AQ46:AQ47, 1)=1, AQ49=0)), 1, 0))</f>
+        <f t="shared" ref="AP49:AR49" si="60">IF( (AP46+AP47+IF(OR(COUNTIF(AQ46:AQ47, 1)=2, AND(COUNTIF(AQ46:AQ47, 1)=1, AQ49=0)), 1, 0))&gt;=2, AP46+AP47+IF(OR(COUNTIF(AQ46:AQ47, 1)=2, AND(COUNTIF(AQ46:AQ47, 1)=1, AQ49=0)), 1, 0)-2, AP46+AP47+IF(OR(COUNTIF(AQ46:AQ47, 1)=2, AND(COUNTIF(AQ46:AQ47, 1)=1, AQ49=0)), 1, 0))</f>
         <v>1</v>
       </c>
       <c r="AQ49" s="1">
-        <f t="shared" si="58"/>
-        <v>1</v>
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
       <c r="AR49" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="AS49" s="1">
-        <f t="shared" ref="AS49" si="59">IF( (AS46+AS47+IF(OR(COUNTIF(AU46:AU47, 1)=2, AND(COUNTIF(AU46:AU47, 1)=1, AU49=0)), 1, 0))&gt;=2, AS46+AS47+IF(OR(COUNTIF(AU46:AU47, 1)=2, AND(COUNTIF(AU46:AU47, 1)=1, AU49=0)), 1, 0)-2, AS46+AS47+IF(OR(COUNTIF(AU46:AU47, 1)=2, AND(COUNTIF(AU46:AU47, 1)=1, AU49=0)), 1, 0))</f>
-        <v>0</v>
+        <f t="shared" ref="AS49" si="61">IF( (AS46+AS47+IF(OR(COUNTIF(AU46:AU47, 1)=2, AND(COUNTIF(AU46:AU47, 1)=1, AU49=0)), 1, 0))&gt;=2, AS46+AS47+IF(OR(COUNTIF(AU46:AU47, 1)=2, AND(COUNTIF(AU46:AU47, 1)=1, AU49=0)), 1, 0)-2, AS46+AS47+IF(OR(COUNTIF(AU46:AU47, 1)=2, AND(COUNTIF(AU46:AU47, 1)=1, AU49=0)), 1, 0))</f>
+        <v>1</v>
       </c>
       <c r="AT49" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AU49" s="1">
-        <f t="shared" ref="AU49:AW49" si="60">IF( (AU46+AU47+IF(OR(COUNTIF(AV46:AV47, 1)=2, AND(COUNTIF(AV46:AV47, 1)=1, AV49=0)), 1, 0))&gt;=2, AU46+AU47+IF(OR(COUNTIF(AV46:AV47, 1)=2, AND(COUNTIF(AV46:AV47, 1)=1, AV49=0)), 1, 0)-2, AU46+AU47+IF(OR(COUNTIF(AV46:AV47, 1)=2, AND(COUNTIF(AV46:AV47, 1)=1, AV49=0)), 1, 0))</f>
-        <v>0</v>
+        <f t="shared" ref="AU49:AW49" si="62">IF( (AU46+AU47+IF(OR(COUNTIF(AV46:AV47, 1)=2, AND(COUNTIF(AV46:AV47, 1)=1, AV49=0)), 1, 0))&gt;=2, AU46+AU47+IF(OR(COUNTIF(AV46:AV47, 1)=2, AND(COUNTIF(AV46:AV47, 1)=1, AV49=0)), 1, 0)-2, AU46+AU47+IF(OR(COUNTIF(AV46:AV47, 1)=2, AND(COUNTIF(AV46:AV47, 1)=1, AV49=0)), 1, 0))</f>
+        <v>1</v>
       </c>
       <c r="AV49" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AW49" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="AX49" s="1">
-        <f t="shared" ref="AX49" si="61">IF((AX46+AX47)=2,0,AX46+AX47)</f>
+        <f t="shared" ref="AX49" si="63">IF((AX46+AX47)=2,0,AX46+AX47)</f>
         <v>0</v>
       </c>
       <c r="AY49" s="7" t="s">
@@ -7858,7 +8250,7 @@
       </c>
       <c r="AZ49" s="9">
         <f>IF(AF49=0,BIN2DEC(CONCATENATE(AP49,AQ49,AR49,AS49,AU49,AV49,AW49,AX49))+BIN2DEC(CONCATENATE(AF49,AG49,AH49,AI49,AK49,AL49,AM49,AN49))*2^8,-(BIN2DEC(CONCATENATE((AP49-1)*(-1),(AQ49-1)*(-1),(AR49-1)*(-1),(AS49-1)*(-1),(AU49-1)*(-1),(AV49-1)*(-1),(AW49-1)*(-1),(AX49-1)*(-1))))-BIN2DEC(CONCATENATE((AF49-1)*(-1),(AG49-1)*(-1),(AH49-1)*(-1),(AI49-1)*(-1),(AK49-1)*(-1),(AL49-1)*(-1),(AM49-1)*(-1),(AN49-1)*(-1)))*2^8-1)</f>
-        <v>10464</v>
+        <v>24248</v>
       </c>
       <c r="BA49" s="7" t="s">
         <v>25</v>
@@ -7868,19 +8260,19 @@
       <c r="BD49" s="1"/>
       <c r="BE49" s="1"/>
       <c r="BF49" s="1">
-        <f t="shared" ref="BF49" si="62">BF46+BF47</f>
-        <v>10464</v>
+        <f t="shared" ref="BF49" si="64">BF46+BF47</f>
+        <v>24248</v>
       </c>
       <c r="BG49" s="7" t="s">
         <v>25</v>
       </c>
       <c r="BH49" s="4"/>
-      <c r="BI49" s="13"/>
-      <c r="BJ49" s="13"/>
-      <c r="BK49" s="13"/>
-      <c r="BL49" s="13"/>
+      <c r="BI49" s="12"/>
+      <c r="BJ49" s="12"/>
+      <c r="BK49" s="12"/>
+      <c r="BL49" s="12"/>
     </row>
-    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -7941,12 +8333,12 @@
       <c r="BF50" s="1"/>
       <c r="BG50" s="1"/>
       <c r="BH50" s="4"/>
-      <c r="BI50" s="13"/>
-      <c r="BJ50" s="13"/>
-      <c r="BK50" s="13"/>
-      <c r="BL50" s="13"/>
+      <c r="BI50" s="12"/>
+      <c r="BJ50" s="12"/>
+      <c r="BK50" s="12"/>
+      <c r="BL50" s="12"/>
     </row>
-    <row r="51" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -7979,33 +8371,33 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
-      <c r="AG51" s="10" t="s">
+      <c r="AG51" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AH51" s="10"/>
-      <c r="AI51" s="10"/>
+      <c r="AH51" s="11"/>
+      <c r="AI51" s="11"/>
       <c r="AJ51" s="2">
         <f>IF(OR(COUNTIF(AF46:AF47,1)=2,AND(COUNTIF(AF46:AF47,1)=1,IF(OR(COUNTIF(AG46:AG47,1)=2,AND(COUNTIF(AG46:AG47,1)=1,AG49=0)),1,0))),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AK51" s="10" t="s">
+      <c r="AK51" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AL51" s="10"/>
-      <c r="AM51" s="10"/>
+      <c r="AL51" s="11"/>
+      <c r="AM51" s="11"/>
       <c r="AN51" s="2">
         <f>IF(MOD(COUNTIF(AP49:AX49,1),2)=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO51" s="2"/>
-      <c r="AP51" s="10" t="s">
+      <c r="AP51" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AQ51" s="10"/>
-      <c r="AR51" s="10"/>
+      <c r="AQ51" s="11"/>
+      <c r="AR51" s="11"/>
       <c r="AS51" s="2">
         <f>IF(OR(COUNTIF(AU46:AU47, 1)=2, AND(COUNTIF(AU46:AU47, 1)=1, AU49=0)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT51" s="2"/>
       <c r="AU51" s="2"/>
@@ -8042,7 +8434,7 @@
       <c r="BK51" s="4"/>
       <c r="BL51" s="4"/>
     </row>
-    <row r="52" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -8108,11 +8500,25 @@
       <c r="BK52" s="4"/>
       <c r="BL52" s="4"/>
     </row>
-    <row r="53" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:64" x14ac:dyDescent="0.35">
       <c r="BI53" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AK9:AM9"/>
+    <mergeCell ref="AP9:AR9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AG16:AI16"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AG23:AI23"/>
+    <mergeCell ref="AK23:AM23"/>
+    <mergeCell ref="AP23:AR23"/>
+    <mergeCell ref="AG30:AI30"/>
+    <mergeCell ref="AK30:AM30"/>
+    <mergeCell ref="AP30:AR30"/>
     <mergeCell ref="AG51:AI51"/>
     <mergeCell ref="AK51:AM51"/>
     <mergeCell ref="AP51:AR51"/>
@@ -8129,28 +8535,19 @@
     <mergeCell ref="AG44:AI44"/>
     <mergeCell ref="AK44:AM44"/>
     <mergeCell ref="AP44:AR44"/>
-    <mergeCell ref="AG23:AI23"/>
-    <mergeCell ref="AK23:AM23"/>
-    <mergeCell ref="AP23:AR23"/>
-    <mergeCell ref="AG30:AI30"/>
-    <mergeCell ref="AK30:AM30"/>
-    <mergeCell ref="AP30:AR30"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AK9:AM9"/>
-    <mergeCell ref="AP9:AR9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AG16:AI16"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AV16:AW16"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:Y7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C15">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>MOD(C4,2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LБалин Артем Алексеевич&amp;CВариант 14&amp;R&amp;F</oddHeader>
     <oddFooter>&amp;L&amp;D&amp;R&amp;T</oddFooter>
